--- a/textToOps/data/processed/stratified_train.xlsx
+++ b/textToOps/data/processed/stratified_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W74"/>
+  <dimension ref="A1:W94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,14 +547,14 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B2" t="n">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
+          <t>What areas are within 20 minutes driving time from flower stores in Oleander</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -566,7 +566,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>amenity=fire_station</t>
+          <t>shop=florist</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -685,26 +685,30 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>What areas are within 20 minutes driving time from flower stores in Oleander</t>
+          <t xml:space="preserve">What areas are within 15 minutes walking distance of a metro rail station in Kochi </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>Kochi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>shop=florist</t>
+          <t>highway=*,railway=station,station=subway</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -756,30 +760,26 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">What areas are within 15 minutes walking distance of a metro rail station in Kochi </t>
+          <t>What areas are within 60 minutes of airports in Crook, Deschutes, and Jefferson county</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kochi</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Crook, Deschutes, Jefferson county</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>highway=*,railway=station,station=subway</t>
+          <t xml:space="preserve"> aeroway=*</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -902,26 +902,26 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B7" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Which visitor facilities are in the Happy Valley</t>
+          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>the Happy Valley</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>information=visitor_centre</t>
+          <t>opening_hours=*</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -957,26 +957,26 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B8" t="n">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
+          <t>What is the land use in Netherlands</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>year_of_construction=*</t>
+          <t>landuse=*</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1012,24 +1012,28 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>What is the land use in the Happy Valley resort</t>
+          <t>What areas are not park in Houston</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>the Happy Valley resort</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>leisure=park</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>done</t>
@@ -1063,14 +1067,14 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>How many luxury hotels are in Happy Valley ski resort</t>
+          <t>Where are forestry lands in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1082,7 +1086,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>tourism=hotel, stars=*</t>
+          <t>Tag:landuse=forestry</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1118,26 +1122,26 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="B11" t="n">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>What areas are not wetlands in Houston</t>
+          <t>Which visitor facilities are in the Happy Valley</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>the Happy Valley</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>natural=wetland</t>
+          <t>information=visitor_centre</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1173,26 +1177,26 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Where are forestry lands in Happy Valley ski resort</t>
+          <t>What areas are not wetlands in Houston</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tag:landuse=forestry</t>
+          <t>natural=wetland</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1228,28 +1232,24 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B13" t="n">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
+          <t>What is the land use in the Happy Valley resort</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>the Happy Valley resort</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>opening_hours=*</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>done</t>
@@ -1283,28 +1283,24 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>How many streetlights for each district in San Diego</t>
+          <t>What are the land use inside the flood zones in Oleander</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>highway=street_lamp</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
           <t>done</t>
@@ -1346,26 +1342,26 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Which land use contains meteorological stations in Netherlands</t>
+          <t>How many streetlights for each district in San Diego</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
+          <t>highway=street_lamp</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1409,7 +1405,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B16" t="n">
         <v>68</v>
@@ -1472,24 +1468,28 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B17" t="n">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Where are the five star hotels in the Happy Valley ski resort</t>
+          <t>What are the two fire stations closest to each school in Utrecht</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>the Happy Valley ski resort</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>done</t>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1522,35 +1522,35 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,network analysis,data queries</t>
         </is>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Where are the ski pistes in Happy Valley ski resort</t>
+          <t>What are the four fire stations with shortest network-based paths to 1202 Twin Peaks Blvd in San Francisco</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>site=piste</t>
+          <t>highway=*, name=Twin Peaks Boulevard, amenity=fire_station</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1585,35 +1585,35 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,network analysis,data queries</t>
         </is>
       </c>
       <c r="W18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>What are the vegetation areas larger than 6000 square meters in the Cape Peninsula</t>
+          <t>Which schools are not within 3 minutes of driving time from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">nature : glacier, landuse =forest, wetland=mangrove </t>
+          <t>amenity=fire_station, amenity=school</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1628,17 +1628,29 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -1648,41 +1660,33 @@
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Where are the Hispanic food stores in Tarrant County</t>
+          <t>What are the four fire stations within 3 minutes of travel time from a fire in San Francisco</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>cuisine=latin_american</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
           <t>done</t>
@@ -1695,17 +1699,29 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -1715,35 +1731,35 @@
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="B21" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
+          <t>Which park is biggest in Utrecht</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>beds=*, tourism=hotel</t>
+          <t>leisure=park</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1787,26 +1803,30 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B22" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Where are not conservation areas in UK</t>
+          <t>Where are the Hispanic food stores in Tarrant County</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>landuse=conservation</t>
+          <t>cuisine=latin_american</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1850,26 +1870,26 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B23" t="n">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Which park is biggest in Utrecht</t>
+          <t>Where are not conservation areas in UK</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>leisure=park</t>
+          <t>landuse=conservation</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1913,26 +1933,26 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B24" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Where are the fire stations in Utrecht</t>
+          <t>Where are the commercial areas in Amsterdam</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>amenity=fire_station</t>
+          <t>landuse=commercial</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1976,28 +1996,24 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B25" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Where are the commercial areas in Amsterdam</t>
+          <t>Where are the five star hotels in the Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>the Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>landuse=commercial</t>
-        </is>
-      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
           <t>done</t>
@@ -2039,30 +2055,26 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B26" t="n">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Where are not protected region in Assam </t>
+          <t>Where are the industrial areas in Utrecht</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>landuse=conservation</t>
+          <t>landuse=industrial</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2106,28 +2118,28 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B27" t="n">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
+          <t>What are the vegetation areas larger than 6000 square meters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">the Western USA </t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>from 1970 to 1994</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nature : glacier, landuse =forest, wetland=mangrove </t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>done</t>
@@ -2135,15 +2147,19 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -2156,33 +2172,37 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B28" t="n">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>What is the literacy rate for each country in Africa</t>
+          <t>Where are the fire stations in Utrecht</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
           <t>done</t>
@@ -2190,15 +2210,19 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -2211,33 +2235,41 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B29" t="n">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>What is the area of currently mixed use zones in Gresham</t>
+          <t xml:space="preserve">Where are not protected region in Assam </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Gresham</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>landuse=conservation</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
           <t>done</t>
@@ -2245,15 +2277,19 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -2266,37 +2302,37 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B30" t="n">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
+          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>the Western USA</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> from 1970 to 1994</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>beds=*, tourism=hotel</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
           <t>done</t>
@@ -2304,15 +2340,19 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -2325,28 +2365,28 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="W30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>What are the vote totals of an election for each precinct in Dallas</t>
+          <t>What is the area of currently mixed use zones in Gresham</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -2389,28 +2429,24 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B32" t="n">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from water body in Houston</t>
+          <t>What is the literacy rate for each country in Africa</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
           <t>done</t>
@@ -2418,19 +2454,15 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -2443,35 +2475,35 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="W32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="B33" t="n">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>What areas are outside 3000 meters of the rivers in Spain</t>
+          <t>Which houses are for sale in Utrecht</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>waterway=river</t>
+          <t>building=house</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2481,19 +2513,15 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -2506,37 +2534,37 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="W33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B34" t="n">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
+          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>the Western USA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>amenity=university</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from 1970 to 1994</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
           <t>done</t>
@@ -2544,19 +2572,15 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -2569,37 +2593,33 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="W34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B35" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
+          <t>What are the vote totals of an election for each precinct in Dallas</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>amenity=restaurant</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
           <t>done</t>
@@ -2607,19 +2627,15 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -2632,23 +2648,23 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="W35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
+          <t>What areas are within a quarter mile of a store in Gresham</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2660,7 +2676,7 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>railway=tram_stop, light_rail</t>
+          <t>shop=*</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2707,23 +2723,23 @@
         <v>23</v>
       </c>
       <c r="B37" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>What areas are within 10 miles of current transmission lines with a voltage greater than 400 in Colorado</t>
+          <t>What areas are outside 3000 meters of the rivers in Spain</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>power=line</t>
+          <t>waterway=river</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2767,26 +2783,26 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
+          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>leisure=playground</t>
+          <t>amenity=restaurant</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2830,24 +2846,28 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B39" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>What areas are more than 5000 meters from the roads in Spain</t>
+          <t>What areas are within 800 meter from major highways in Houston</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>highway=motorway</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
           <t>done</t>
@@ -2889,26 +2909,26 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the arcades in Oleander</t>
+          <t>What areas are outside 300 meters from streams in Houston</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>leisure=amusement_arcade</t>
+          <t>waterway=stream</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2952,26 +2972,26 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B41" t="n">
         <v>37</v>
       </c>
-      <c r="B41" t="n">
-        <v>49</v>
-      </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>What areas are within 800 meter from major highways in Houston</t>
+          <t>What areas are within 1000 meters of the arcades in Oleander</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>leisure=amusement_arcade</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3015,26 +3035,26 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the schools in Oleander</t>
+          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>amenity=university</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3078,26 +3098,26 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B43" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>What areas are within 100 meters of cameras in Salford</t>
+          <t>What areas are outside 60 meters from residence in Houston</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Salford</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>man_made=surveillance, highway=speed_camera</t>
+          <t>residential=*</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3141,30 +3161,30 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B44" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>What areas are within one mile of main roads in Loudoun County in US</t>
+          <t>What areas are outside 5 km of water bodies in Assam</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3208,26 +3228,26 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B45" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from schools in Houston</t>
+          <t>What areas are outside 5000 meters of the roads in Spain</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3271,30 +3291,26 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B46" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>What area are within 50 km from family physician services in Saskatchewan</t>
+          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>amenity=doctor</t>
+          <t>leisure=nature_reserve</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3338,26 +3354,26 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B47" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>What areas are outside 250 meters of human settlement in the Cape Peninsula</t>
+          <t>What areas are at least 3000 meters from the rivers in Spain</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>residential=*</t>
+          <t>waterway=river</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3401,26 +3417,26 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B48" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>What areas are within 100 meters of the hospitals in Oleander</t>
+          <t>What areas are within 300 meters of runways in Schiphol airport</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Schiphol airport</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>aeroway=runway</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3464,19 +3480,19 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B49" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from hospitals in Houston</t>
+          <t>What areas are within 100 meters of the hospitals in Oleander</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3527,26 +3543,26 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B50" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the major transport routes in Amsterdam</t>
+          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>leisure=playground</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3590,26 +3606,26 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B51" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>What areas are inside 1000 foot of schools in El Cajon</t>
+          <t>What areas are within 100 meters of cameras in Salford</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Salford</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>amenity=school, amenity=kindergarten</t>
+          <t>man_made=surveillance, highway=speed_camera</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3653,26 +3669,26 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B52" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from residence in Houston</t>
+          <t>What areas are within 1000 meters of the major transport routes in Amsterdam</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>residential=*</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3716,30 +3732,26 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B53" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>What areas are outside 5 km of water bodies in Assam</t>
+          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Karbala, Iraq</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
+          <t>landuse=religious</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3783,26 +3795,26 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B54" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>What areas are at least 3000 meters from the rivers in Spain</t>
+          <t>What areas are within 10 miles of current transmission lines with a voltage greater than 400 in Colorado</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>waterway=river</t>
+          <t>power=line</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3846,30 +3858,26 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B55" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">What areas are within 1000 meters of roads in Assam </t>
+          <t>What areas are outside 250 meters of human settlement in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>the Cape Peninsula</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>residential=*</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3913,24 +3921,32 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B56" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
+          <t>What areas are within one mile of main roads in Loudoun County in US</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>highway=motorway</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
           <t>done</t>
@@ -3938,29 +3954,21 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
@@ -3971,33 +3979,37 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W56" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B57" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
+          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>railway=tram_stop, light_rail</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
           <t>done</t>
@@ -4005,29 +4017,21 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
@@ -4038,28 +4042,28 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W57" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B58" t="n">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
+          <t>What areas are more than 5000 meters from the roads in Spain</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -4072,29 +4076,21 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
@@ -4105,35 +4101,35 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W58" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B59" t="n">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
+          <t>What areas are outside 150 meters from schools in Houston</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>shop=alcohol, leisure=park</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4148,7 +4144,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4156,11 +4152,7 @@
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -4172,37 +4164,33 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W59" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="B60" t="n">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
+          <t>What areas are not flood plain in Houston</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=library</t>
-        </is>
-      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
           <t>done</t>
@@ -4215,19 +4203,11 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -4239,37 +4219,33 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W60" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="B61" t="n">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
+          <t>What areas are not green belt areas in Houston</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
-        </is>
-      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
           <t>done</t>
@@ -4282,19 +4258,11 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -4306,37 +4274,33 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W61" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B62" t="n">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
+          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>leisure=park, building=house</t>
-        </is>
-      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
           <t>done</t>
@@ -4349,22 +4313,34 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -4373,35 +4349,35 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W62" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B63" t="n">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
+          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>highway=motorway, building=house</t>
+          <t>amenity=fire_station</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4416,22 +4392,34 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -4440,37 +4428,33 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="W63" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B64" t="n">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
+          <t>What areas are within a quarter mile of planned commercial district in Gresham</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=school</t>
-        </is>
-      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
           <t>done</t>
@@ -4478,22 +4462,22 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Data queries</t>
         </is>
       </c>
       <c r="M64" t="inlineStr"/>
@@ -4507,31 +4491,35 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W64" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B65" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
+          <t>What areas are within two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
@@ -4541,16 +4529,24 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -4562,28 +4558,28 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="W65" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B66" t="n">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
+          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -4596,17 +4592,29 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
@@ -4617,28 +4625,28 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W66" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B67" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
+          <t>What areas do have slope larger than 10 percent in Spain</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -4651,17 +4659,29 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
@@ -4672,28 +4692,28 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W67" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B68" t="n">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>What is the mean center of customers weighted by the number of transactions in Oleander city</t>
+          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Oleander city</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4706,17 +4726,29 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
@@ -4727,35 +4759,35 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W68" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B69" t="n">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to schools in Utrecht</t>
+          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>monitoring:weather=yes</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4765,17 +4797,29 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
@@ -4786,35 +4830,31 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W69" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B70" t="n">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>What is the kernel density of traffic accidents in Pasadena</t>
+          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Pasadena</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
+          <t>the Cape Peninsula</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
@@ -4824,17 +4864,29 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
@@ -4845,35 +4897,35 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="W70" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B71" t="n">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
+          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>landuse=recreation_ground</t>
+          <t>shop=alcohol, leisure=park</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4888,11 +4940,19 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -4904,35 +4964,35 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W71" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="B72" t="n">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to hospitals in Oleander</t>
+          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>shop=alcohol, amenity=school</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4947,11 +5007,19 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -4963,33 +5031,37 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W72" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B73" t="n">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
+          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>highway=motorway, building=house</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr">
         <is>
           <t>done</t>
@@ -5002,11 +5074,19 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -5018,33 +5098,37 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="W73" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="B74" t="n">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to green areas in Amsterdam</t>
+          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Hillsboro</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>abandoned:*=*, highway=motorway</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr">
         <is>
           <t>done</t>
@@ -5057,11 +5141,19 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -5073,11 +5165,1243 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr">
         <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="W74" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B75" t="n">
+        <v>109</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>El Cajon</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="W75" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B76" t="n">
+        <v>67</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>leisure=park, building=house</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="W76" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B77" t="n">
+        <v>65</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>amenity=school, building=house</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="W77" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B78" t="n">
+        <v>66</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>shop=*, building=house</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="W78" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B79" t="n">
+        <v>105</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>What is the median people age for each census tract in Tarrant County</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>data editing,overlay analysis,data editing,data queries</t>
+        </is>
+      </c>
+      <c r="W79" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B80" t="n">
+        <v>104</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>What is the median household income for each census block in Tarrant County</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>data editing,overlay analysis,data editing,data queries</t>
+        </is>
+      </c>
+      <c r="W80" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B81" t="n">
+        <v>77</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>What is the central feature of fire station in Fort Worth</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
+        </is>
+      </c>
+      <c r="W81" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B82" t="n">
+        <v>75</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>What is the central feature of bank branches in Oleander</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>amenity=bank</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
+        </is>
+      </c>
+      <c r="W82" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>What is the density surface of rainfall measurements in the Netherlands</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>the Netherlands</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr">
+        <is>
           <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
-      <c r="W74" t="n">
+      <c r="W83" t="n">
         <v>32</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B84" t="n">
+        <v>86</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>What is the Euclidean distance to hospitals in Oleander</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>amenity=hospital</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="W84" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B85" t="n">
+        <v>85</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>What is the Euclidean distance to green areas in Amsterdam</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="W85" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B86" t="n">
+        <v>88</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>What is the Euclidean distance to schools in Utrecht</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>amenity=school</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="W86" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B87" t="n">
+        <v>92</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>What is the kernel density of crime in Surrey in UK</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Surrey</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="W87" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B88" t="n">
+        <v>90</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Crook, Deschutes, Jefferson county</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="W88" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B89" t="n">
+        <v>93</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>What is the kernel density of traffic accidents in Pasadena</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Pasadena</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="W89" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B90" t="n">
+        <v>98</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="W90" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B91" t="n">
+        <v>91</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="W91" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B92" t="n">
+        <v>82</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>What is the density surface of temperature measurements in Oleander city</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Oleander city</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="W92" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B93" t="n">
+        <v>100</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>What is the mean center of library patrons for each district in Oleander</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+        </is>
+      </c>
+      <c r="W93" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B94" t="n">
+        <v>101</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+        </is>
+      </c>
+      <c r="W94" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/textToOps/data/processed/stratified_train.xlsx
+++ b/textToOps/data/processed/stratified_train.xlsx
@@ -547,14 +547,14 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>What areas are within 20 minutes driving time from flower stores in Oleander</t>
+          <t>How many buildings are within 3 minutes of driving time from fire stations in Oleander</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -566,7 +566,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>shop=florist</t>
+          <t>building=*, highway=*</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -618,24 +618,28 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>What are the areas within a four-minute drive of each fire station at 2 a.m. on Tuesday in Utrecht</t>
+          <t>Which houses are within 2 minutes driving time from fire stations  (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>done</t>
@@ -648,7 +652,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -760,26 +764,26 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>What areas are within 60 minutes of airports in Crook, Deschutes, and Jefferson county</t>
+          <t>What areas are within 20 minutes driving time from flower stores in Oleander</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> aeroway=*</t>
+          <t>shop=florist</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -831,28 +835,24 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>How many buildings are within 3 minutes of driving time from fire stations in Oleander</t>
+          <t>What are the areas within a four-minute drive of each fire station at 2 a.m. on Tuesday in Utrecht</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>building=*, highway=*</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>done</t>
@@ -865,7 +865,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -902,14 +902,14 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B7" t="n">
         <v>110</v>
       </c>
-      <c r="B7" t="n">
-        <v>132</v>
-      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
+          <t>Where are forestry lands in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -921,7 +921,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>opening_hours=*</t>
+          <t>Tag:landuse=forestry</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -957,26 +957,26 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B8" t="n">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>What is the land use in Netherlands</t>
+          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>landuse=*</t>
+          <t>year_of_construction=*</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1012,26 +1012,26 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>What areas are not park in Houston</t>
+          <t>What is the land use in Netherlands</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>leisure=park</t>
+          <t>landuse=*</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1067,28 +1067,24 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B10" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Where are forestry lands in Happy Valley ski resort</t>
+          <t>What is the land use in the Happy Valley resort</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>the Happy Valley resort</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Tag:landuse=forestry</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>done</t>
@@ -1122,26 +1118,26 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Which visitor facilities are in the Happy Valley</t>
+          <t>How many luxury hotels are in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>the Happy Valley</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>information=visitor_centre</t>
+          <t>tourism=hotel, stars=*</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1177,26 +1173,26 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="B12" t="n">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>What areas are not wetlands in Houston</t>
+          <t>Which visitor facilities are in the Happy Valley</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>the Happy Valley</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>natural=wetland</t>
+          <t>information=visitor_centre</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1232,24 +1228,28 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>What is the land use in the Happy Valley resort</t>
+          <t>What areas are not wetlands in Houston</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>the Happy Valley resort</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>natural=wetland</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>done</t>
@@ -1283,24 +1283,28 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>What are the land use inside the flood zones in Oleander</t>
+          <t>Which land use contains meteorological stations in Netherlands</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>done</t>
@@ -1342,28 +1346,24 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>How many streetlights for each district in San Diego</t>
+          <t>What are the land use inside the flood zones in Oleander</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>highway=street_lamp</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>done</t>
@@ -1405,26 +1405,26 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>What houses are for sale in urban areas in Utrecht</t>
+          <t>How many streetlights for each district in San Diego</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>highway=street_lamp</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1740,26 +1740,26 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B21" t="n">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Which park is biggest in Utrecht</t>
+          <t>Where are the rocky areas in Spain</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>leisure=park</t>
+          <t>nature : bare_rock</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1803,30 +1803,26 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B22" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Where are the Hispanic food stores in Tarrant County</t>
+          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>cuisine=latin_american</t>
+          <t>beds=*, tourism=hotel</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1870,26 +1866,26 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B23" t="n">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Where are not conservation areas in UK</t>
+          <t>Which park is biggest in Utrecht</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>landuse=conservation</t>
+          <t>leisure=park</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2055,26 +2051,30 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Where are the industrial areas in Utrecht</t>
+          <t>Where are the Hispanic food stores in Tarrant County</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>landuse=industrial</t>
+          <t>cuisine=latin_american</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2118,26 +2118,26 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B27" t="n">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>What are the vegetation areas larger than 6000 square meters in the Cape Peninsula</t>
+          <t>Where are the ski pistes in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">nature : glacier, landuse =forest, wetland=mangrove </t>
+          <t>site=piste</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2244,30 +2244,26 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="B29" t="n">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Where are not protected region in Assam </t>
+          <t>What are the vegetation areas larger than 6000 square meters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>the Cape Peninsula</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>landuse=conservation</t>
+          <t xml:space="preserve">nature : glacier, landuse =forest, wetland=mangrove </t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2311,26 +2307,30 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B30" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
+          <t xml:space="preserve">Where are not protected region in Assam </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>beds=*, tourism=hotel</t>
+          <t>landuse=conservation</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2374,19 +2374,19 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>What is the area of currently mixed use zones in Gresham</t>
+          <t>What are the vote totals of an election for each precinct in Dallas</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -2429,24 +2429,28 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B32" t="n">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>What is the literacy rate for each country in Africa</t>
+          <t>Which houses are for sale in Utrecht</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>building=house</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
           <t>done</t>
@@ -2484,28 +2488,28 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B33" t="n">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Which houses are for sale in Utrecht</t>
+          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t xml:space="preserve">the Western USA </t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>building=house</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>from 1970 to 1994</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
           <t>done</t>
@@ -2513,7 +2517,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2543,27 +2547,23 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
+          <t>What is the literacy rate for each country in Africa</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>the Western USA</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> from 1970 to 1994</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
@@ -2602,19 +2602,19 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B35" t="n">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>What are the vote totals of an election for each precinct in Dallas</t>
+          <t>What is the area of currently mixed use zones in Gresham</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2657,26 +2657,26 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B36" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a store in Gresham</t>
+          <t>What areas are outside 150 meters from schools in Houston</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>shop=*</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2720,26 +2720,26 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>What areas are outside 3000 meters of the rivers in Spain</t>
+          <t>What areas are outside 60 meters from water body in Houston</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>waterway=river</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2783,28 +2783,24 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B38" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
+          <t>What areas are more than 5000 meters from the roads in Spain</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>amenity=restaurant</t>
-        </is>
-      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
           <t>done</t>
@@ -2846,26 +2842,26 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>What areas are within 800 meter from major highways in Houston</t>
+          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>amenity=restaurant</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2909,14 +2905,14 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B40" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>What areas are outside 300 meters from streams in Houston</t>
+          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2928,7 +2924,7 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>waterway=stream</t>
+          <t>leisure=nature_reserve</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2972,26 +2968,26 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B41" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the arcades in Oleander</t>
+          <t>What areas are outside 150 meters from hospitals in Houston</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>leisure=amusement_arcade</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3035,26 +3031,26 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B42" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
+          <t>What areas are outside 5000 meters of the roads in Spain</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>amenity=university</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3098,26 +3094,26 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from residence in Houston</t>
+          <t>What areas are within a quarter mile of a store in Gresham</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>residential=*</t>
+          <t>shop=*</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3161,30 +3157,26 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B44" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>What areas are outside 5 km of water bodies in Assam</t>
+          <t>What areas are within 1000 meters of the arcades in Oleander</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
+          <t>leisure=amusement_arcade</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3228,26 +3220,30 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>What areas are outside 5000 meters of the roads in Spain</t>
+          <t>What areas are outside 5 km of water bodies in Assam</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3291,26 +3287,26 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B46" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
+          <t>What areas are at least 3000 meters from the rivers in Spain</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>leisure=nature_reserve</t>
+          <t>waterway=river</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3354,26 +3350,26 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B47" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>What areas are at least 3000 meters from the rivers in Spain</t>
+          <t>What areas are outside 60 meters from residence in Houston</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>waterway=river</t>
+          <t>residential=*</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3417,26 +3413,26 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B48" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>What areas are within 300 meters of runways in Schiphol airport</t>
+          <t>What areas are within 800 meter from major highways in Houston</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Schiphol airport</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>aeroway=runway</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3480,26 +3476,26 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B49" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>What areas are within 100 meters of the hospitals in Oleander</t>
+          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>landuse=religious</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3543,26 +3539,26 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B50" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
+          <t>What areas are within 100 meters of cameras in Salford</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Salford</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>leisure=playground</t>
+          <t>man_made=surveillance, highway=speed_camera</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3606,26 +3602,26 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B51" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>What areas are within 100 meters of cameras in Salford</t>
+          <t>What areas are within 1000 meters of the major transport routes in Amsterdam</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Salford</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>man_made=surveillance, highway=speed_camera</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3669,26 +3665,26 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B52" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the major transport routes in Amsterdam</t>
+          <t>What areas are outside 300 meters from streams in Houston</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>waterway=stream</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3732,26 +3728,26 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B53" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
+          <t>What areas are within 100 meters of the hospitals in Oleander</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>landuse=religious</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3795,26 +3791,26 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B54" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>What areas are within 10 miles of current transmission lines with a voltage greater than 400 in Colorado</t>
+          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>power=line</t>
+          <t>leisure=playground</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3858,26 +3854,26 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B55" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>What areas are outside 250 meters of human settlement in the Cape Peninsula</t>
+          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>residential=*</t>
+          <t>amenity=university</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3988,26 +3984,26 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B57" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
+          <t>What areas are within 300 meters of runways in Schiphol airport</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Schiphol airport</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>railway=tram_stop, light_rail</t>
+          <t>aeroway=runway</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4051,24 +4047,28 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B58" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>What areas are more than 5000 meters from the roads in Spain</t>
+          <t>What areas are within 1000 meters of the schools in Oleander</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>amenity=school</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
           <t>done</t>
@@ -4110,26 +4110,30 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B59" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from schools in Houston</t>
+          <t>What area are within 50 km from family physician services in Saskatchewan</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Houston</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+          <t>Saskatchewan</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>amenity=doctor</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4173,14 +4177,14 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B60" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>What areas are not flood plain in Houston</t>
+          <t>What areas are not green belt areas in Houston</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4228,14 +4232,14 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B61" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>What areas are not green belt areas in Houston</t>
+          <t>What areas are not flood plain in Houston</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4283,14 +4287,14 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="B62" t="n">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4300,7 +4304,11 @@
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>amenity=fire_station</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
           <t>done</t>
@@ -4358,14 +4366,14 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="B63" t="n">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4375,11 +4383,7 @@
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
           <t>done</t>
@@ -4437,22 +4441,26 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B64" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of planned commercial district in Gresham</t>
+          <t>What areas are within two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Gresham</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
@@ -4500,26 +4508,22 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B65" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>What areas are within two miles of urban landuse in Loudoun County in US</t>
+          <t>What areas are within a quarter mile of planned commercial district in Gresham</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Gresham</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
@@ -4567,14 +4571,14 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B66" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>What areas have an aspect larger than 45 degree and smaller than 135 degrees in the Cape Peninsula</t>
+          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4701,19 +4705,19 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B68" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
+          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4768,28 +4772,24 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B69" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
+          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>monitoring:weather=yes</t>
-        </is>
-      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
           <t>done</t>
@@ -4839,24 +4839,28 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>monitoring:weather=yes</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
           <t>done</t>
@@ -4906,26 +4910,26 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B71" t="n">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
+          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>shop=alcohol, leisure=park</t>
+          <t>highway=motorway, building=house</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4940,7 +4944,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4973,14 +4977,14 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B72" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
+          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4992,7 +4996,7 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=school</t>
+          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5040,26 +5044,26 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B73" t="n">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
+          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>highway=motorway, building=house</t>
+          <t>shop=alcohol, amenity=library</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -5074,7 +5078,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5107,26 +5111,26 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B74" t="n">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Which vacant lots are within 1 mile of a freeway in Hillsboro</t>
+          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Hillsboro</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>abandoned:*=*, highway=motorway</t>
+          <t>shop=alcohol, leisure=park</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -5174,26 +5178,26 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B75" t="n">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
+          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
+          <t>leisure=park, building=house</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -5208,7 +5212,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5241,26 +5245,26 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B76" t="n">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
+          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>leisure=park, building=house</t>
+          <t>shop=alcohol, amenity=school</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -5275,7 +5279,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5308,14 +5312,14 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B77" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5327,7 +5331,7 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>amenity=school, building=house</t>
+          <t>shop=*, building=house</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -5379,14 +5383,14 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B78" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
+          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5398,7 +5402,7 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>shop=*, building=house</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -5450,14 +5454,14 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>What is the median people age for each census tract in Tarrant County</t>
+          <t>What is the median household income for each census block in Tarrant County</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -5517,26 +5521,22 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B80" t="n">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>What is the median household income for each census block in Tarrant County</t>
+          <t>What is the average rating of street pavement for each borough in New York City</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5710,28 +5710,28 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B83" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>What is the density surface of rainfall measurements in the Netherlands</t>
+          <t>What is the kernel density of crime in Surrey in UK</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>the Netherlands</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
+          <t>Surrey</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
-        </is>
-      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
           <t>done</t>
@@ -5769,28 +5769,24 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B84" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to hospitals in Oleander</t>
+          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>amenity=hospital</t>
-        </is>
-      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
           <t>done</t>
@@ -5828,19 +5824,19 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B85" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to green areas in Amsterdam</t>
+          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -5883,26 +5879,26 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B86" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to schools in Utrecht</t>
+          <t>What is the Euclidean distance to hospitals in Oleander</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5942,28 +5938,28 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B87" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>What is the kernel density of crime in Surrey in UK</t>
+          <t>What is the Euclidean distance to schools in Utrecht</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Surrey</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>amenity=school</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr">
         <is>
           <t>done</t>
@@ -6001,19 +5997,19 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B88" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to the rivers in Crook, Deschutes, and Jefferson county</t>
+          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Crook, Deschutes, Jefferson county</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -6115,24 +6111,28 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B90" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
+          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>landuse=recreation_ground</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
           <t>done</t>
@@ -6170,24 +6170,28 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B91" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
+          <t>What is the density surface of rainfall measurements in the Netherlands</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>the Netherlands</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr">
         <is>
           <t>done</t>
@@ -6225,28 +6229,24 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B92" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>What is the density surface of temperature measurements in Oleander city</t>
+          <t>What is the Euclidean distance to green areas in Amsterdam</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Oleander city</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
-        </is>
-      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
           <t>done</t>
@@ -6284,23 +6284,27 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B93" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>What is the mean center of library patrons for each district in Oleander</t>
+          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
@@ -6343,27 +6347,23 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B94" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
+          <t>What is the mean center of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>

--- a/textToOps/data/processed/stratified_train.xlsx
+++ b/textToOps/data/processed/stratified_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W94"/>
+  <dimension ref="A1:Z116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,10 +536,25 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>Tools</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Issues</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Column1</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>op_type</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>op_id</t>
         </is>
@@ -607,21 +622,24 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
-      <c r="W2" t="n">
+      <c r="Z2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="B3" t="n">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -678,25 +696,28 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
-      <c r="W3" t="n">
+      <c r="Z3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">What areas are within 15 minutes walking distance of a metro rail station in Kochi </t>
+          <t>What areas are within 15 minutes walking distance of a metro rail station in Kochi in India</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -753,21 +774,24 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
-      <c r="W4" t="n">
+      <c r="Z4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -824,18 +848,21 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
-      <c r="W5" t="n">
+      <c r="Z5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -891,21 +918,24 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
-      <c r="W6" t="n">
+      <c r="Z6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="B7" t="n">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -946,37 +976,40 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>data queries</t>
         </is>
       </c>
-      <c r="W7" t="n">
+      <c r="Z7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="B8" t="n">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Which houses have construction year between 1990 and 2000 in Utrecht</t>
+          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>year_of_construction=*</t>
+          <t>opening_hours=*</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1001,21 +1034,24 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>data queries</t>
         </is>
       </c>
-      <c r="W8" t="n">
+      <c r="Z8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B9" t="n">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1056,30 +1092,33 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>data queries</t>
         </is>
       </c>
-      <c r="W9" t="n">
+      <c r="Z9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="B10" t="n">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>What is the land use in the Happy Valley resort</t>
+          <t>What is the number of luxury hotels in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>the Happy Valley resort</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -1107,39 +1146,38 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr">
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>data queries</t>
         </is>
       </c>
-      <c r="W10" t="n">
+      <c r="Z10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>How many luxury hotels are in Happy Valley ski resort</t>
+          <t>What is the land use in the Happy Valley resort</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>the Happy Valley resort</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>tourism=hotel, stars=*</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>done</t>
@@ -1162,37 +1200,40 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>data queries</t>
         </is>
       </c>
-      <c r="W11" t="n">
+      <c r="Z11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Which visitor facilities are in the Happy Valley</t>
+          <t>How many luxury hotels are in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>the Happy Valley</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>information=visitor_centre</t>
+          <t>tourism=hotel, stars=*</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1217,37 +1258,40 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr">
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>data queries</t>
         </is>
       </c>
-      <c r="W12" t="n">
+      <c r="Z12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>What areas are not wetlands in Houston</t>
+          <t>Which visitor facilities are in the Happy Valley</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>the Happy Valley</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>natural=wetland</t>
+          <t>information=visitor_centre</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1272,37 +1316,40 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr">
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>data queries</t>
         </is>
       </c>
-      <c r="W13" t="n">
+      <c r="Z13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Which land use contains meteorological stations in Netherlands</t>
+          <t>What areas are not wetlands in Houston</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
+          <t>natural=wetland</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1315,16 +1362,8 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -1335,35 +1374,42 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>data queries,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="W14" t="n">
-        <v>2</v>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
+      <c r="Z14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>What are the land use inside the flood zones in Oleander</t>
+          <t>What are the four fire stations with shortest network-based paths to 1202 Twin Peaks Blvd in San Francisco</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>highway=*, name=Twin Peaks Boulevard, amenity=fire_station</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>done</t>
@@ -1376,7 +1422,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1394,37 +1440,40 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>data queries,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="W15" t="n">
-        <v>2</v>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Z15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>How many streetlights for each district in San Diego</t>
+          <t>Which wind farm proposals are nearest to the bike lane in Scotland</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>highway=street_lamp</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1439,7 +1488,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1457,37 +1506,40 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>data queries,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="W16" t="n">
-        <v>2</v>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Z16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>What are the two fire stations closest to each school in Utrecht</t>
+          <t>Which suggested wind farm are nearest to the high way in Scotland</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>amenity=fire_station, amenity=school</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1502,7 +1554,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1520,37 +1572,40 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr">
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
         <is>
           <t>data queries,network analysis,data queries</t>
         </is>
       </c>
-      <c r="W17" t="n">
+      <c r="Z17" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>182</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>What are the four fire stations with shortest network-based paths to 1202 Twin Peaks Blvd in San Francisco</t>
+          <t>Which proposed wind farm are nearest to the high way in Scotland</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>highway=*, name=Twin Peaks Boulevard, amenity=fire_station</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1565,7 +1620,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1583,30 +1638,33 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr">
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
         <is>
           <t>data queries,network analysis,data queries</t>
         </is>
       </c>
-      <c r="W18" t="n">
+      <c r="Z18" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Which schools are not within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>What are the two fire stations closest to each school in Utrecht</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1633,24 +1691,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -1658,35 +1704,42 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="W19" t="n">
-        <v>5</v>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Z19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>183</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>What are the four fire stations within 3 minutes of travel time from a fire in San Francisco</t>
+          <t>Which wind farm proposals are nearest to the high way in Scotland</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>done</t>
@@ -1699,29 +1752,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -1729,39 +1770,38 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="W20" t="n">
-        <v>5</v>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Z20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="B21" t="n">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Where are the rocky areas in Spain</t>
+          <t>What are the four fire stations within 3 minutes of travel time from a fire in San Francisco</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>nature : bare_rock</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
           <t>done</t>
@@ -1774,17 +1814,29 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -1792,37 +1844,40 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="W21" t="n">
-        <v>8</v>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Z21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B22" t="n">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
+          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>beds=*, tourism=hotel</t>
+          <t>amenity=fire_station, amenity=school</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1837,17 +1892,29 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -1855,37 +1922,40 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="W22" t="n">
-        <v>8</v>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Z22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="B23" t="n">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Which park is biggest in Utrecht</t>
+          <t>Which schools are not accessible within 3 minutes of driving time from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>leisure=park</t>
+          <t>amenity=fire_station, amenity=school</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1900,17 +1970,29 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -1918,37 +2000,40 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="W23" t="n">
-        <v>8</v>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Z23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B24" t="n">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Where are the commercial areas in Amsterdam</t>
+          <t>Which schools are not accessible within 3 minutes by a car from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>landuse=commercial</t>
+          <t>amenity=fire_station, amenity=school</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1963,17 +2048,29 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
@@ -1981,30 +2078,33 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="W24" t="n">
-        <v>8</v>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Z24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="B25" t="n">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Where are the five star hotels in the Happy Valley ski resort</t>
+          <t>What are the vote totals of an election for each precinct in Dallas</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>the Happy Valley ski resort</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -2017,19 +2117,15 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -2040,25 +2136,28 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="W25" t="n">
-        <v>8</v>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Z25" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B26" t="n">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Where are the Hispanic food stores in Tarrant County</t>
+          <t>Where are the auto accidents in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2072,11 +2171,7 @@
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>cuisine=latin_american</t>
-        </is>
-      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
           <t>done</t>
@@ -2084,19 +2179,15 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -2107,39 +2198,42 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="W26" t="n">
-        <v>8</v>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Z26" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B27" t="n">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Where are the ski pistes in Happy Valley ski resort</t>
+          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t xml:space="preserve">the Western USA </t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>site=piste</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>from 1970 to 1994</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
           <t>done</t>
@@ -2147,19 +2241,15 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -2170,39 +2260,38 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="W27" t="n">
-        <v>8</v>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Z27" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B28" t="n">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Where are the fire stations in Utrecht</t>
+          <t>What is the literacy rate for each country in Africa</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
           <t>done</t>
@@ -2210,19 +2299,15 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -2233,39 +2318,38 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="W28" t="n">
-        <v>8</v>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Z28" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="B29" t="n">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>What are the vegetation areas larger than 6000 square meters in the Cape Peninsula</t>
+          <t>What is the area of currently mixed use zones in Gresham</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nature : glacier, landuse =forest, wetland=mangrove </t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
           <t>done</t>
@@ -2273,19 +2357,15 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -2296,43 +2376,42 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="W29" t="n">
-        <v>8</v>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Z29" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B30" t="n">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Where are not protected region in Assam </t>
+          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>landuse=conservation</t>
-        </is>
-      </c>
+          <t>the Western USA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from 1970 to 1994</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
           <t>done</t>
@@ -2340,19 +2419,15 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -2363,35 +2438,42 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="W30" t="n">
-        <v>8</v>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Z30" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>What are the vote totals of an election for each precinct in Dallas</t>
+          <t>What areas are outside 60 meters from residence in Houston</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>residential=*</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
           <t>done</t>
@@ -2399,15 +2481,19 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -2418,37 +2504,40 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>data editing,data queries</t>
-        </is>
-      </c>
-      <c r="W31" t="n">
-        <v>9</v>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Z31" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="B32" t="n">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Which houses are for sale in Utrecht</t>
+          <t>What areas are outside 5000 meters of the roads in Spain</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>building=house</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2458,15 +2547,19 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -2477,39 +2570,42 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>data editing,data queries</t>
-        </is>
-      </c>
-      <c r="W32" t="n">
-        <v>9</v>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Z32" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B33" t="n">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
+          <t>What areas are outside 150 meters from hospitals in Houston</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">the Western USA </t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>from 1970 to 1994</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>amenity=hospital</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
           <t>done</t>
@@ -2517,15 +2613,19 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -2536,35 +2636,42 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>data editing,data queries</t>
-        </is>
-      </c>
-      <c r="W33" t="n">
-        <v>9</v>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Z33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="B34" t="n">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>What is the literacy rate for each country in Africa</t>
+          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>leisure=nature_reserve</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
           <t>done</t>
@@ -2572,15 +2679,19 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -2591,30 +2702,33 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>data editing,data queries</t>
-        </is>
-      </c>
-      <c r="W34" t="n">
-        <v>9</v>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Z34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B35" t="n">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>What is the area of currently mixed use zones in Gresham</t>
+          <t>What areas are more than 5000 meters from the roads in Spain</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2627,15 +2741,19 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -2646,21 +2764,24 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>data editing,data queries</t>
-        </is>
-      </c>
-      <c r="W35" t="n">
-        <v>9</v>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Z35" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B36" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2709,37 +2830,40 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="W36" t="n">
+      <c r="Z36" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B37" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from water body in Houston</t>
+          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
+          <t>amenity=restaurant</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2772,35 +2896,42 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="W37" t="n">
+      <c r="Z37" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B38" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>What areas are more than 5000 meters from the roads in Spain</t>
+          <t>What areas are within 1000 meters of the schools in Oleander</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>amenity=school</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
           <t>done</t>
@@ -2831,37 +2962,40 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="W38" t="n">
+      <c r="Z38" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B39" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
+          <t>What areas are at least 3000 meters from the rivers in Spain</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>amenity=restaurant</t>
+          <t>waterway=river</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2894,37 +3028,44 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="W39" t="n">
+      <c r="Z39" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B40" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
+          <t>What areas are outside 5 km of water bodies in Assam in India</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Houston</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>leisure=nature_reserve</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2957,25 +3098,28 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="W40" t="n">
+      <c r="Z40" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from hospitals in Houston</t>
+          <t>What areas are within 800 meter from major highways in Houston</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2987,7 +3131,7 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3020,37 +3164,40 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr">
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="W41" t="n">
+      <c r="Z41" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B42" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>What areas are outside 5000 meters of the roads in Spain</t>
+          <t>What areas are within 1000 meters of the arcades in Oleander</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>leisure=amusement_arcade</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3083,37 +3230,40 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr">
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="W42" t="n">
+      <c r="Z42" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B43" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a store in Gresham</t>
+          <t>What areas are outside 60 meters from water body in Houston</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>shop=*</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3146,37 +3296,40 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr">
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="W43" t="n">
+      <c r="Z43" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the arcades in Oleander</t>
+          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>leisure=amusement_arcade</t>
+          <t>railway=tram_stop, light_rail</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3209,41 +3362,40 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr">
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="W44" t="n">
+      <c r="Z44" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B45" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>What areas are outside 5 km of water bodies in Assam</t>
+          <t>What areas are outside 300 meters from streams in Houston</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
+          <t>waterway=stream</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3276,37 +3428,40 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr">
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="W45" t="n">
+      <c r="Z45" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B46" t="n">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>What areas are at least 3000 meters from the rivers in Spain</t>
+          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>waterway=river</t>
+          <t>landuse=religious</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3339,37 +3494,40 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr">
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="W46" t="n">
+      <c r="Z46" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B47" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from residence in Houston</t>
+          <t>What areas are within 300 meters of runways in Schiphol airport</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Schiphol airport</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>residential=*</t>
+          <t>aeroway=runway</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3402,37 +3560,40 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="W47" t="n">
+      <c r="Z47" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>What areas are within 800 meter from major highways in Houston</t>
+          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>amenity=university</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3465,37 +3626,44 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="W48" t="n">
+      <c r="Z48" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
+          <t>What areas are within one mile of main roads in Loudoun County in US</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>landuse=religious</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3528,37 +3696,44 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr">
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="W49" t="n">
+      <c r="Z49" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B50" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>What areas are within 100 meters of cameras in Salford</t>
+          <t>What area are within 50 km from family physician services in Saskatchewan in Canada</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Salford</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>Saskatchewan</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>man_made=surveillance, highway=speed_camera</t>
+          <t>amenity=doctor</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3591,39 +3766,38 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr">
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
-      <c r="W50" t="n">
+      <c r="Z50" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B51" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the major transport routes in Amsterdam</t>
+          <t>What areas are not flood plain in Houston</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>highway=motorway</t>
-        </is>
-      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
           <t>done</t>
@@ -3636,14 +3810,10 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -3654,25 +3824,28 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="W51" t="n">
-        <v>10</v>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Z51" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B52" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>What areas are outside 300 meters from streams in Houston</t>
+          <t>What areas are not green belt areas in Houston</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3682,11 +3855,7 @@
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>waterway=stream</t>
-        </is>
-      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
           <t>done</t>
@@ -3699,14 +3868,10 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
@@ -3717,39 +3882,38 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="W52" t="n">
-        <v>10</v>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Z52" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B53" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>What areas are within 100 meters of the hospitals in Oleander</t>
+          <t>What areas are not classified as flood plain in Houston</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>amenity=hospital</t>
-        </is>
-      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
           <t>done</t>
@@ -3762,14 +3926,10 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
@@ -3780,39 +3940,38 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="W53" t="n">
-        <v>10</v>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Z53" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B54" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>What areas are within 2000 meters of the playgrounds in Oleander</t>
+          <t>Tell me not flood plain area in Houston</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>leisure=playground</t>
-        </is>
-      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
           <t>done</t>
@@ -3825,14 +3984,10 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -3843,39 +3998,38 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="W54" t="n">
-        <v>10</v>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Z54" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B55" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
+          <t>What areas are green belt areas in Houston</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>amenity=university</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
           <t>done</t>
@@ -3888,14 +4042,10 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
@@ -3906,43 +4056,38 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="W55" t="n">
-        <v>10</v>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Z55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B56" t="n">
         <v>48</v>
       </c>
-      <c r="B56" t="n">
-        <v>54</v>
-      </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>What areas are within one mile of main roads in Loudoun County in US</t>
+          <t>What areas are reachable within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>highway=motorway</t>
-        </is>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
           <t>done</t>
@@ -3955,57 +4100,76 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="W56" t="n">
-        <v>10</v>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
+      <c r="Z56" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>What areas are within 300 meters of runways in Schiphol airport</t>
+          <t>What areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Schiphol airport</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>aeroway=runway</t>
-        </is>
-      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
           <t>done</t>
@@ -4018,43 +4182,66 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="W57" t="n">
-        <v>10</v>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
+      <c r="Z57" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B58" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the schools in Oleander</t>
+          <t>What areas are within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4064,11 +4251,7 @@
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>amenity=school</t>
-        </is>
-      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
           <t>done</t>
@@ -4081,61 +4264,76 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="W58" t="n">
-        <v>10</v>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
+      <c r="Z58" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B59" t="n">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>What area are within 50 km from family physician services in Saskatchewan</t>
+          <t>What areas are accessible within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>amenity=doctor</t>
-        </is>
-      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
           <t>done</t>
@@ -4148,48 +4346,71 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="W59" t="n">
-        <v>10</v>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
+      <c r="Z59" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>What areas are not green belt areas in Houston</t>
+          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -4202,17 +4423,29 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
@@ -4221,30 +4454,33 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>data queries,overlay analysis</t>
-        </is>
-      </c>
-      <c r="W60" t="n">
-        <v>12</v>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Z60" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B61" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>What areas are not flood plain in Houston</t>
+          <t>What areas do have slope larger than 10 percent in Spain</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -4257,17 +4493,29 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
@@ -4276,39 +4524,38 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>data queries,overlay analysis</t>
-        </is>
-      </c>
-      <c r="W61" t="n">
-        <v>12</v>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Z61" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="B62" t="n">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Which houses are within 3 minutes driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>amenity=fire_station</t>
-        </is>
-      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
           <t>done</t>
@@ -4316,12 +4563,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4331,59 +4578,58 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data model conversion</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
-        </is>
-      </c>
-      <c r="W62" t="n">
-        <v>14</v>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Z62" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B63" t="n">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>What areas are within 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas do have temperature in Celsius less than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>monitoring:weather=yes</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr">
         <is>
           <t>done</t>
@@ -4391,12 +4637,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4406,61 +4652,52 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data model conversion</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
-        </is>
-      </c>
-      <c r="W63" t="n">
-        <v>14</v>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Z63" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B64" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>What areas are within two miles of urban landuse in Loudoun County in US</t>
+          <t>What areas have an annual snowfall more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>the Cape Peninsula</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
@@ -4470,25 +4707,29 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
@@ -4497,30 +4738,33 @@
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="W64" t="n">
-        <v>16</v>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Z64" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B65" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of planned commercial district in Gresham</t>
+          <t>What areas have an annual rainfall of less than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -4533,25 +4777,29 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
@@ -4560,25 +4808,28 @@
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>data editing,data queries,buffer,overlay analysis</t>
-        </is>
-      </c>
-      <c r="W65" t="n">
-        <v>16</v>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Z65" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B66" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
+          <t>What areas have an monthly rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4596,7 +4847,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4627,13 +4878,16 @@
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
-        </is>
-      </c>
-      <c r="W66" t="n">
-        <v>17</v>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Z66" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="67">
@@ -4641,11 +4895,11 @@
         <v>51</v>
       </c>
       <c r="B67" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>What areas do have slope larger than 10 percent in Spain</t>
+          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4655,7 +4909,11 @@
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>monitoring:weather=yes</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr">
         <is>
           <t>done</t>
@@ -4663,7 +4921,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4694,30 +4952,33 @@
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
-        </is>
-      </c>
-      <c r="W67" t="n">
-        <v>17</v>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Z67" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B68" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
+          <t>What areas have an annual amount of snowfall more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4730,7 +4991,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4761,35 +5022,42 @@
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
-        </is>
-      </c>
-      <c r="W68" t="n">
-        <v>17</v>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+        </is>
+      </c>
+      <c r="Z68" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B69" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>What areas have an annual rainfall of more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>highway=motorway, building=house</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr">
         <is>
           <t>done</t>
@@ -4797,29 +5065,25 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
@@ -4828,37 +5092,40 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
-        </is>
-      </c>
-      <c r="W69" t="n">
-        <v>19</v>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Z69" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="B70" t="n">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
+          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>monitoring:weather=yes</t>
+          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4868,29 +5135,25 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
@@ -4899,37 +5162,40 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
-        </is>
-      </c>
-      <c r="W70" t="n">
-        <v>19</v>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Z70" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="B71" t="n">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
+          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>highway=motorway, building=house</t>
+          <t>shop=alcohol, amenity=library</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4944,7 +5210,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4966,25 +5232,28 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr">
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
-      <c r="W71" t="n">
-        <v>21</v>
+      <c r="Z71" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B72" t="n">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
+          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4996,7 +5265,7 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
+          <t>shop=alcohol, leisure=park</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5033,37 +5302,40 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr">
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
-      <c r="W72" t="n">
-        <v>21</v>
+      <c r="Z72" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B73" t="n">
         <v>88</v>
       </c>
-      <c r="B73" t="n">
-        <v>106</v>
-      </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
+          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=library</t>
+          <t>leisure=park, building=house</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -5078,7 +5350,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5100,25 +5372,28 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr">
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
-      <c r="W73" t="n">
-        <v>21</v>
+      <c r="Z73" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B74" t="n">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
+          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -5130,7 +5405,7 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>shop=alcohol, leisure=park</t>
+          <t>shop=alcohol, amenity=school</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -5167,25 +5442,28 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr">
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr">
         <is>
           <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
-      <c r="W74" t="n">
-        <v>21</v>
+      <c r="Z74" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B75" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
+          <t>Which houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -5197,7 +5475,7 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>leisure=park, building=house</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -5207,25 +5485,29 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
@@ -5234,37 +5516,40 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="W75" t="n">
-        <v>21</v>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Z75" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B76" t="n">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
+          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=school</t>
+          <t>shop=*, building=house</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -5274,25 +5559,29 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
           <t>buffer</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
@@ -5301,25 +5590,28 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
-        </is>
-      </c>
-      <c r="W76" t="n">
-        <v>21</v>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Z76" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B77" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
+          <t>What houses are for sale and within 1km from the nearest subway station (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5372,25 +5664,28 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr">
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr">
         <is>
           <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
-      <c r="W77" t="n">
-        <v>22</v>
+      <c r="Z77" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B78" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What houses are less than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5443,39 +5738,42 @@
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr">
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr">
         <is>
           <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
-      <c r="W78" t="n">
-        <v>22</v>
+      <c r="Z78" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B79" t="n">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>What is the median household income for each census block in Tarrant County</t>
+          <t>What houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>amenity=school, building=house</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr">
         <is>
           <t>done</t>
@@ -5483,25 +5781,29 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
@@ -5510,35 +5812,42 @@
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
-        </is>
-      </c>
-      <c r="W79" t="n">
-        <v>26</v>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+        </is>
+      </c>
+      <c r="Z79" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B80" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>What is the average rating of street pavement for each borough in New York City</t>
+          <t>What houses are for sale outside flood zone in Utrecht</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>boundary=urban, building=house</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr">
         <is>
           <t>done</t>
@@ -5546,7 +5855,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5556,14 +5865,10 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Data editing</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -5573,37 +5878,44 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
-        </is>
-      </c>
-      <c r="W80" t="n">
-        <v>26</v>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="Z80" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B81" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>What is the central feature of fire station in Fort Worth</t>
+          <t>What houses are for sale in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>amenity=fire_station</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -5618,12 +5930,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Generalization</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L81" t="inlineStr"/>
@@ -5636,37 +5948,44 @@
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
-        </is>
-      </c>
-      <c r="W81" t="n">
-        <v>28</v>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="Z81" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B82" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>What is the central feature of bank branches in Oleander</t>
+          <t>What houses are less than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5681,12 +6000,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Generalization</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L82" t="inlineStr"/>
@@ -5699,39 +6018,46 @@
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
-        </is>
-      </c>
-      <c r="W82" t="n">
-        <v>28</v>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="Z82" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B83" t="n">
         <v>92</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>What is the kernel density of crime in Surrey in UK</t>
+          <t>What houses are larger than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Surrey</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>boundary=urban, building=house</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr">
         <is>
           <t>done</t>
@@ -5744,10 +6070,14 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
@@ -5758,35 +6088,46 @@
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="W83" t="n">
-        <v>32</v>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="Z83" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B84" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
+          <t>What houses are for sale in flood zone in Utrecht</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>boundary=urban, building=house</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
           <t>done</t>
@@ -5799,10 +6140,14 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
@@ -5813,33 +6158,44 @@
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="W84" t="n">
-        <v>32</v>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
+      <c r="Z84" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B85" t="n">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
+          <t>What is the median population for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
@@ -5849,16 +6205,24 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -5868,39 +6232,42 @@
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="W85" t="n">
-        <v>32</v>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>data editing,overlay analysis,data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Z85" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B86" t="n">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to hospitals in Oleander</t>
+          <t xml:space="preserve">What is the number of injured pedestrians for each census tract in Georgia from 2000 to 2007 </t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>amenity=hospital</t>
-        </is>
-      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from 2000 to 2007 </t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
           <t>done</t>
@@ -5908,16 +6275,24 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
@@ -5927,39 +6302,38 @@
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="W86" t="n">
-        <v>32</v>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>data editing,overlay analysis,data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Z86" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B87" t="n">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to schools in Utrecht</t>
+          <t>What is the average rating of street pavement for each borough in New York City</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>amenity=school</t>
-        </is>
-      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
           <t>done</t>
@@ -5967,16 +6341,24 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Data editing</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -5986,33 +6368,40 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="W87" t="n">
-        <v>32</v>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>data editing,overlay analysis,data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Z87" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B88" t="n">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
+          <t>Show me the median people age for each census tract in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -6022,16 +6411,24 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -6041,35 +6438,38 @@
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="W88" t="n">
-        <v>32</v>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>data editing,overlay analysis,data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Z88" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="B89" t="n">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>What is the kernel density of traffic accidents in Pasadena</t>
+          <t>What is the median number of family member for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Pasadena</t>
+          <t>Tarrant County</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>California</t>
+          <t xml:space="preserve"> Texas</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -6081,16 +6481,24 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -6100,39 +6508,42 @@
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="W89" t="n">
-        <v>32</v>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>data editing,overlay analysis,data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Z89" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="B90" t="n">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
+          <t>Tell me the median household income for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>landuse=recreation_ground</t>
-        </is>
-      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
           <t>done</t>
@@ -6140,16 +6551,24 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -6159,37 +6578,40 @@
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="W90" t="n">
-        <v>32</v>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>data editing,overlay analysis,data editing,data queries</t>
+        </is>
+      </c>
+      <c r="Z90" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B91" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>What is the density surface of rainfall measurements in the Netherlands</t>
+          <t>Show me the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>the Netherlands</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6204,10 +6626,14 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
@@ -6220,33 +6646,44 @@
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="W91" t="n">
-        <v>32</v>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="Z91" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B92" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to green areas in Amsterdam</t>
+          <t>What is weighted average coordinates of bank branches in Oleander</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>amenity=bank</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr">
         <is>
           <t>done</t>
@@ -6259,10 +6696,14 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
+          <t>Generalization</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
@@ -6275,37 +6716,44 @@
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="W92" t="n">
-        <v>32</v>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="Z92" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B93" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
+          <t>Tell me weighted average coordinates of bank branches in Oleander</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>amenity=bank</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
           <t>done</t>
@@ -6318,7 +6766,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Generalization</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6338,23 +6786,30 @@
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
-        </is>
-      </c>
-      <c r="W93" t="n">
-        <v>35</v>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="Z93" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B94" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>What is the mean center of library patrons for each district in Oleander</t>
+          <t>Tell me the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -6364,7 +6819,11 @@
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>amenity=bank</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr">
         <is>
           <t>done</t>
@@ -6377,7 +6836,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Generalization</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6397,11 +6856,1402 @@
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr">
         <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="Z94" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B95" t="n">
+        <v>122</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>What is the kernel density of crime in Surrey in UK</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Surrey</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Z95" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B96" t="n">
+        <v>121</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Z96" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>128</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Z97" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B98" t="n">
+        <v>116</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>What is the Euclidean distance to hospitals in Oleander</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>amenity=hospital</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Z98" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B99" t="n">
+        <v>118</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>What is the Euclidean distance to schools in Utrecht</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>amenity=school</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Z99" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B100" t="n">
+        <v>119</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Z100" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B101" t="n">
+        <v>123</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>What is the kernel density of traffic accidents in Pasadena, California</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Pasadena</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Z101" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B102" t="n">
+        <v>117</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>landuse=recreation_ground</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Z102" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B103" t="n">
+        <v>111</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>What is the density surface of rainfall measurements in the Netherlands</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>the Netherlands</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Z103" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B104" t="n">
+        <v>115</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>What is the Euclidean distance to green areas in Amsterdam</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Z104" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B105" t="n">
+        <v>130</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Calculate the weighted coordinate average of library patrons for each district in Oleander</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr">
+        <is>
           <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
-      <c r="W94" t="n">
-        <v>35</v>
+      <c r="Z105" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B106" t="n">
+        <v>133</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Z106" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B107" t="n">
+        <v>132</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>What is the mean center of library patrons for each district in Oleander</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Z107" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B108" t="n">
+        <v>131</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>What is the weighted coordinate average of library patrons for each district in Oleander</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+        </is>
+      </c>
+      <c r="Z108" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B109" t="n">
+        <v>163</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>beds=*, tourism=hotel</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Z109" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B110" t="n">
+        <v>165</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Where are the ski pistes in Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>site=piste</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Z110" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B111" t="n">
+        <v>158</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Where are the five star hotels in the Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>the Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Z111" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B112" t="n">
+        <v>162</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Where are the industrial areas in Utrecht</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>landuse=industrial</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Z112" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B113" t="n">
+        <v>159</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Where are the Hispanic food stores in Tarrant County in Texas</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>cuisine=latin_american</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Z113" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B114" t="n">
+        <v>152</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Where are not conservation areas in UK</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>landuse=conservation</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Z114" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B115" t="n">
+        <v>173</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Which park is biggest in Utrecht</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>leisure=park</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Z115" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B116" t="n">
+        <v>156</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Where are the commercial areas in Amsterdam</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>landuse=commercial</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>data queries,geometry measurement,data queries</t>
+        </is>
+      </c>
+      <c r="Z116" t="n">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/textToOps/data/processed/stratified_train.xlsx
+++ b/textToOps/data/processed/stratified_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z116"/>
+  <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,24 +862,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>151</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>What are the areas within a four-minute drive of each fire station at 2 a.m. on Tuesday in Utrecht</t>
+          <t>Where are forestry lands in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Tag:landuse=forestry</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>done</t>
@@ -890,26 +894,10 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>network analysis</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -923,23 +911,23 @@
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B7" t="n">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Where are forestry lands in Happy Valley ski resort</t>
+          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -951,7 +939,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tag:landuse=forestry</t>
+          <t>opening_hours=*</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -990,26 +978,26 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="B8" t="n">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Which shops are open at 6 pm in Happy Valley ski resort</t>
+          <t>What is the land use in Netherlands</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>opening_hours=*</t>
+          <t>landuse=*</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1048,28 +1036,24 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B9" t="n">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>What is the land use in Netherlands</t>
+          <t>What is the number of luxury hotels in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>landuse=*</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>done</t>
@@ -1106,19 +1090,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B10" t="n">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>What is the number of luxury hotels in Happy Valley ski resort</t>
+          <t>What is the land use in the Happy Valley resort</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>the Happy Valley resort</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -1160,24 +1144,28 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>What is the land use in the Happy Valley resort</t>
+          <t>How many luxury hotels are in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>the Happy Valley resort</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>tourism=hotel, stars=*</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>done</t>
@@ -1214,26 +1202,26 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>How many luxury hotels are in Happy Valley ski resort</t>
+          <t>Which visitor facilities are in the Happy Valley</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Happy Valley ski resort</t>
+          <t>the Happy Valley</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>tourism=hotel, stars=*</t>
+          <t>information=visitor_centre</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1272,26 +1260,26 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Which visitor facilities are in the Happy Valley</t>
+          <t>What are the four fire stations with shortest network-based paths to 1202 Twin Peaks Blvd in San Francisco</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>the Happy Valley</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>information=visitor_centre</t>
+          <t>highway=*, name=Twin Peaks Boulevard, amenity=fire_station</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1304,8 +1292,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1321,35 +1317,35 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,network analysis,data queries</t>
         </is>
       </c>
       <c r="Z13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="B14" t="n">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>What areas are not wetlands in Houston</t>
+          <t>Which wind farm proposals are nearest to the bike lane in Scotland</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>natural=wetland</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1362,8 +1358,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>network analysis</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -1379,35 +1383,35 @@
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,network analysis,data queries</t>
         </is>
       </c>
       <c r="Z14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>181</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>What are the four fire stations with shortest network-based paths to 1202 Twin Peaks Blvd in San Francisco</t>
+          <t>Which suggested wind farm are nearest to the high way in Scotland</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>highway=*, name=Twin Peaks Boulevard, amenity=fire_station</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1422,7 +1426,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1454,14 +1458,14 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B16" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Which wind farm proposals are nearest to the bike lane in Scotland</t>
+          <t>Which proposed wind farm are nearest to the high way in Scotland</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1520,26 +1524,26 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Which suggested wind farm are nearest to the high way in Scotland</t>
+          <t>What are the two fire stations closest to each school in Utrecht</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>amenity=fire_station, amenity=school</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1554,7 +1558,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1586,28 +1590,24 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>182</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Which proposed wind farm are nearest to the high way in Scotland</t>
+          <t>What are the four fire stations within 3 minutes of travel time from a fire in San Francisco</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>highway=*</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
           <t>done</t>
@@ -1620,17 +1620,29 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -1643,28 +1655,28 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>What are the two fire stations closest to each school in Utrecht</t>
+          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1691,12 +1703,24 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -1709,35 +1733,35 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B20" t="n">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Which wind farm proposals are nearest to the high way in Scotland</t>
+          <t>Which schools are not accessible within 3 minutes of driving time from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>amenity=fire_station, amenity=school</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1752,17 +1776,29 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>data queries</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -1775,33 +1811,37 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>What are the four fire stations within 3 minutes of travel time from a fire in San Francisco</t>
+          <t>Which schools are not accessible within 3 minutes by a car from a fire station in Fort Worth</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>amenity=fire_station, amenity=school</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>done</t>
@@ -1834,7 +1874,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data queries</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1858,28 +1898,24 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="B22" t="n">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Which schools are not reachable within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>What are the vote totals of an election for each precinct in Dallas</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>amenity=fire_station, amenity=school</t>
-        </is>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
           <t>done</t>
@@ -1887,34 +1923,18 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -1927,37 +1947,37 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Z22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B23" t="n">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Which schools are not accessible within 3 minutes of driving time from a fire station in Fort Worth</t>
+          <t>Where are the auto accidents in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>amenity=fire_station, amenity=school</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t>done</t>
@@ -1965,34 +1985,18 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -2005,37 +2009,37 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Z23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="B24" t="n">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Which schools are not accessible within 3 minutes by a car from a fire station in Fort Worth</t>
+          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t xml:space="preserve">the Western USA </t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>amenity=fire_station, amenity=school</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>from 1970 to 1994</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
           <t>done</t>
@@ -2043,34 +2047,18 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
@@ -2083,28 +2071,28 @@
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Z24" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="B25" t="n">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>What are the vote totals of an election for each precinct in Dallas</t>
+          <t>What is the literacy rate for each country in Africa</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -2117,7 +2105,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2150,26 +2138,22 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="B26" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Where are the auto accidents in Tarrant County in Texas</t>
+          <t>What is the area of currently mixed use zones in Gresham</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Gresham</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
@@ -2179,7 +2163,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2212,28 +2196,28 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
+          <t>What areas are outside 60 meters from residence in Houston</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">the Western USA </t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>from 1970 to 1994</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>residential=*</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>done</t>
@@ -2241,15 +2225,19 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -2265,33 +2253,37 @@
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Z27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>What is the literacy rate for each country in Africa</t>
+          <t>What areas are outside 5000 meters of the roads in Spain</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
           <t>done</t>
@@ -2299,15 +2291,19 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -2323,33 +2319,37 @@
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Z28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>What is the area of currently mixed use zones in Gresham</t>
+          <t>What areas are outside 150 meters from hospitals in Houston</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>amenity=hospital</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
           <t>done</t>
@@ -2357,15 +2357,19 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -2381,37 +2385,37 @@
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Z29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="B30" t="n">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>What is the lung cancer mortality rate of white males for each city in the Western USA from 1970 to 1994</t>
+          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>the Western USA</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> from 1970 to 1994</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>leisure=nature_reserve</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
           <t>done</t>
@@ -2419,15 +2423,19 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -2443,37 +2451,33 @@
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Z30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B31" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from residence in Houston</t>
+          <t>What areas are more than 5000 meters from the roads in Spain</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>residential=*</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
           <t>done</t>
@@ -2518,26 +2522,26 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B32" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>What areas are outside 5000 meters of the roads in Spain</t>
+          <t>What areas are outside 150 meters from schools in Houston</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2584,26 +2588,26 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B33" t="n">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from hospitals in Houston</t>
+          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>amenity=restaurant</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2650,26 +2654,26 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B34" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
+          <t>What areas are within 1000 meters of the schools in Oleander</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>leisure=nature_reserve</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2716,14 +2720,14 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>What areas are more than 5000 meters from the roads in Spain</t>
+          <t>What areas are at least 3000 meters from the rivers in Spain</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2733,7 +2737,11 @@
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>waterway=river</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>done</t>
@@ -2778,26 +2786,30 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B36" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from schools in Houston</t>
+          <t>What areas are outside 5 km of water bodies in Assam in India</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Houston</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2844,26 +2856,26 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
+          <t>What areas are within 800 meter from major highways in Houston</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>amenity=restaurant</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2910,14 +2922,14 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the schools in Oleander</t>
+          <t>What areas are within 1000 meters of the arcades in Oleander</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2929,7 +2941,7 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>leisure=amusement_arcade</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2976,26 +2988,26 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B39" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>What areas are at least 3000 meters from the rivers in Spain</t>
+          <t>What areas are outside 60 meters from water body in Houston</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>waterway=river</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3042,30 +3054,26 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>What areas are outside 5 km of water bodies in Assam in India</t>
+          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Gresham</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
+          <t>railway=tram_stop, light_rail</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3112,14 +3120,14 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>What areas are within 800 meter from major highways in Houston</t>
+          <t>What areas are outside 300 meters from streams in Houston</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3131,7 +3139,7 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>waterway=stream</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3178,26 +3186,26 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the arcades in Oleander</t>
+          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>leisure=amusement_arcade</t>
+          <t>landuse=religious</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3244,26 +3252,26 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B43" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from water body in Houston</t>
+          <t>What areas are within 300 meters of runways in Schiphol airport</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Schiphol airport</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
+          <t>aeroway=runway</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3310,26 +3318,26 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
+          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Karbala, Iraq</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>railway=tram_stop, light_rail</t>
+          <t>amenity=university</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3376,14 +3384,14 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B45" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>What areas are outside 300 meters from streams in Houston</t>
+          <t>What areas are not flood plain in Houston</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3393,11 +3401,7 @@
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>waterway=stream</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
           <t>done</t>
@@ -3410,14 +3414,10 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
@@ -3433,37 +3433,33 @@
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Z45" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B46" t="n">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
+          <t>What areas are not green belt areas in Houston</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>landuse=religious</t>
-        </is>
-      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
           <t>done</t>
@@ -3476,14 +3472,10 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
@@ -3499,37 +3491,33 @@
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Z46" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B47" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>What areas are within 300 meters of runways in Schiphol airport</t>
+          <t>What areas are not classified as flood plain in Houston</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Schiphol airport</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>aeroway=runway</t>
-        </is>
-      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
           <t>done</t>
@@ -3542,14 +3530,10 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -3565,37 +3549,33 @@
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Z47" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B48" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
+          <t>Tell me not flood plain area in Houston</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>amenity=university</t>
-        </is>
-      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
           <t>done</t>
@@ -3608,14 +3588,10 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
@@ -3631,41 +3607,33 @@
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Z48" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B49" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>What areas are within one mile of main roads in Loudoun County in US</t>
+          <t>What areas are reachable within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Loudoun County</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>highway=motorway</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
           <t>done</t>
@@ -3678,18 +3646,34 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -3697,45 +3681,41 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
         </is>
       </c>
       <c r="Z49" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B50" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>What area are within 50 km from family physician services in Saskatchewan in Canada</t>
+          <t>What areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Saskatchewan</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>amenity=doctor</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
           <t>done</t>
@@ -3748,18 +3728,34 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3767,32 +3763,36 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
         </is>
       </c>
       <c r="Z50" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B51" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>What areas are not flood plain in Houston</t>
+          <t>What areas are within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -3810,14 +3810,34 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -3825,32 +3845,36 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
         </is>
       </c>
       <c r="Z51" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B52" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>What areas are not green belt areas in Houston</t>
+          <t>What areas are accessible within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3868,14 +3892,34 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
@@ -3883,32 +3927,36 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
         </is>
       </c>
       <c r="Z52" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B53" t="n">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>What areas are not classified as flood plain in Houston</t>
+          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3921,17 +3969,29 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
@@ -3945,28 +4005,28 @@
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Z53" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B54" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Tell me not flood plain area in Houston</t>
+          <t>What areas do have slope larger than 10 percent in Spain</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3979,17 +4039,29 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
@@ -4003,28 +4075,28 @@
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Z54" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B55" t="n">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>What areas are green belt areas in Houston</t>
+          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -4037,17 +4109,29 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Data model conversion</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
@@ -4061,33 +4145,37 @@
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Z55" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B56" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>What areas are reachable within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas do have temperature in Celsius less than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>monitoring:weather=yes</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
           <t>done</t>
@@ -4095,12 +4183,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4110,24 +4198,16 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data model conversion</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -4135,36 +4215,32 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Z56" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>What areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas have an annual snowfall more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -4177,12 +4253,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4192,24 +4268,16 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data model conversion</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
@@ -4217,36 +4285,32 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Z57" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B58" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>What areas are within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas have an annual rainfall of less than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -4259,12 +4323,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4274,24 +4338,16 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data model conversion</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
@@ -4299,36 +4355,32 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Z58" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B59" t="n">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>What areas are accessible within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas have an monthly rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -4341,12 +4393,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4356,24 +4408,16 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data model conversion</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
@@ -4381,41 +4425,41 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Z59" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B60" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
+          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>monitoring:weather=yes</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
           <t>done</t>
@@ -4423,7 +4467,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4459,33 +4503,37 @@
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Z60" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>What areas do have slope larger than 10 percent in Spain</t>
+          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>highway=motorway, building=house</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
           <t>done</t>
@@ -4493,29 +4541,25 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
@@ -4529,33 +4573,37 @@
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z61" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="B62" t="n">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
+          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
           <t>done</t>
@@ -4563,29 +4611,25 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
@@ -4599,35 +4643,35 @@
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z62" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="B63" t="n">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>What areas do have temperature in Celsius less than 0 degrees in Spain</t>
+          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>monitoring:weather=yes</t>
+          <t>shop=alcohol, amenity=library</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4637,29 +4681,25 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
@@ -4673,33 +4713,37 @@
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z63" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="B64" t="n">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>What areas have an annual snowfall more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>shop=alcohol, leisure=park</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
           <t>done</t>
@@ -4707,29 +4751,25 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
@@ -4743,33 +4783,37 @@
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z64" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B65" t="n">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>What areas have an annual rainfall of less than 1000 millimeters in the Cape Peninsula</t>
+          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>leisure=park, building=house</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
           <t>done</t>
@@ -4777,29 +4821,25 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
@@ -4813,33 +4853,37 @@
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z65" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B66" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>What areas have an monthly rainfall of more than 1000 millimeters in the Cape Peninsula</t>
+          <t>Which houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>amenity=school, building=house</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
           <t>done</t>
@@ -4847,27 +4891,27 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
@@ -4883,35 +4927,35 @@
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z66" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
+          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>monitoring:weather=yes</t>
+          <t>shop=*, building=house</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4921,27 +4965,27 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -4957,33 +5001,37 @@
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z67" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B68" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>What areas have an annual amount of snowfall more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What houses are for sale and within 1km from the nearest subway station (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>shop=*, building=house</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
           <t>done</t>
@@ -4991,27 +5039,27 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -5027,23 +5075,23 @@
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z68" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B69" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
+          <t>What houses are less than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -5055,7 +5103,7 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>highway=motorway, building=house</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5065,25 +5113,29 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
@@ -5097,35 +5149,35 @@
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z69" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="B70" t="n">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
+          <t>What houses are for sale outside flood zone in Utrecht</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5140,19 +5192,15 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -5163,39 +5211,43 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
         </is>
       </c>
       <c r="Z70" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="B71" t="n">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
+          <t>What houses are for sale in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=library</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5210,19 +5262,15 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -5233,39 +5281,43 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
         </is>
       </c>
       <c r="Z71" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="B72" t="n">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
+          <t>What houses are less than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>shop=alcohol, leisure=park</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5280,19 +5332,15 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -5303,27 +5351,31 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
         </is>
       </c>
       <c r="Z72" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B73" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
+          <t>What houses are larger than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -5335,7 +5387,7 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>leisure=park, building=house</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -5350,19 +5402,15 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -5373,41 +5421,45 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
         </is>
       </c>
       <c r="Z73" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B74" t="n">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools in El Cajon</t>
+          <t>What is the median population for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>El Cajon</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>shop=alcohol, amenity=school</t>
-        </is>
-      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
           <t>done</t>
@@ -5415,17 +5467,17 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5447,37 +5499,37 @@
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Z74" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Which houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t xml:space="preserve">What is the number of injured pedestrians for each census tract in Georgia from 2000 to 2007 </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>amenity=school, building=house</t>
-        </is>
-      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from 2000 to 2007 </t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
           <t>done</t>
@@ -5485,29 +5537,25 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
@@ -5521,37 +5569,33 @@
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Z75" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
+          <t>What is the average rating of street pavement for each borough in New York City</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>shop=*, building=house</t>
-        </is>
-      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
           <t>done</t>
@@ -5559,29 +5603,25 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
@@ -5595,37 +5635,37 @@
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Z76" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B77" t="n">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest subway station (from my current location) in Utrecht</t>
+          <t>Show me the median people age for each census tract in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>shop=*, building=house</t>
-        </is>
-      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
           <t>done</t>
@@ -5633,29 +5673,25 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
@@ -5669,37 +5705,37 @@
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Z77" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="B78" t="n">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>What houses are less than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What is the median number of family member for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>amenity=school, building=house</t>
-        </is>
-      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
           <t>done</t>
@@ -5707,29 +5743,25 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
@@ -5743,37 +5775,37 @@
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Z78" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="B79" t="n">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>What houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>Tell me the median household income for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>amenity=school, building=house</t>
-        </is>
-      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
           <t>done</t>
@@ -5781,29 +5813,25 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
@@ -5817,35 +5845,35 @@
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Z79" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B80" t="n">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>What houses are for sale outside flood zone in Utrecht</t>
+          <t>Show me the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -5860,12 +5888,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Generalization</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="L80" t="inlineStr"/>
@@ -5878,44 +5906,44 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
         </is>
       </c>
       <c r="Z80" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B81" t="n">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>What houses are for sale in urban areas in Utrecht</t>
+          <t>What is weighted average coordinates of bank branches in Oleander</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -5930,12 +5958,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Generalization</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="L81" t="inlineStr"/>
@@ -5948,44 +5976,44 @@
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
         </is>
       </c>
       <c r="Z81" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B82" t="n">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>What houses are less than 30 square meters in urban areas in Utrecht</t>
+          <t>Tell me weighted average coordinates of bank branches in Oleander</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -6000,12 +6028,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Generalization</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="L82" t="inlineStr"/>
@@ -6018,44 +6046,44 @@
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
         </is>
       </c>
       <c r="Z82" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B83" t="n">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>What houses are larger than 30 square meters in urban areas in Utrecht</t>
+          <t>Tell me the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>boundary=urban, building=house</t>
+          <t>amenity=bank</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -6070,12 +6098,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Generalization</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="L83" t="inlineStr"/>
@@ -6088,46 +6116,46 @@
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
         </is>
       </c>
       <c r="Z83" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>What houses are for sale in flood zone in Utrecht</t>
+          <t>What is the kernel density of crime in Surrey in UK</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
+          <t>Surrey</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>boundary=urban, building=house</t>
-        </is>
-      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
           <t>done</t>
@@ -6140,14 +6168,10 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
@@ -6159,43 +6183,35 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Z84" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B85" t="n">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>What is the median population for each census block in Tarrant County in Texas</t>
+          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
@@ -6205,24 +6221,16 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -6237,36 +6245,32 @@
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Z85" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B86" t="n">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">What is the number of injured pedestrians for each census tract in Georgia from 2000 to 2007 </t>
+          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> from 2000 to 2007 </t>
-        </is>
-      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
@@ -6275,24 +6279,16 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
@@ -6307,33 +6303,37 @@
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Z86" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B87" t="n">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>What is the average rating of street pavement for each borough in New York City</t>
+          <t>What is the Euclidean distance to hospitals in Oleander</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>amenity=hospital</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr">
         <is>
           <t>done</t>
@@ -6341,24 +6341,16 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Data editing</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -6373,37 +6365,37 @@
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Z87" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Show me the median people age for each census tract in Tarrant County in Texas</t>
+          <t>What is the Euclidean distance to schools in Utrecht</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>amenity=school</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr">
         <is>
           <t>done</t>
@@ -6411,24 +6403,16 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -6443,35 +6427,31 @@
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Z88" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>What is the median number of family member for each census block in Tarrant County in Texas</t>
+          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -6481,24 +6461,16 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -6513,33 +6485,33 @@
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Z89" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B90" t="n">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Tell me the median household income for each census block in Tarrant County in Texas</t>
+          <t>What is the kernel density of traffic accidents in Pasadena, California</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
+          <t>Pasadena</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Texas</t>
+          <t>California</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -6551,24 +6523,16 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -6583,35 +6547,35 @@
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Z90" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B91" t="n">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Show me the central feature of bank branches in Oleander</t>
+          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t>landuse=recreation_ground</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6626,14 +6590,10 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Generalization</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
@@ -6644,44 +6604,40 @@
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
+      <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Z91" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B92" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>What is weighted average coordinates of bank branches in Oleander</t>
+          <t>What is the density surface of rainfall measurements in the Netherlands</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>the Netherlands</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t xml:space="preserve"> man_made=monitoring_station</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -6696,14 +6652,10 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Generalization</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
@@ -6714,32 +6666,28 @@
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
+      <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Z92" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Tell me weighted average coordinates of bank branches in Oleander</t>
+          <t>Calculate the weighted coordinate average of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -6749,11 +6697,7 @@
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>amenity=bank</t>
-        </is>
-      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
           <t>done</t>
@@ -6766,7 +6710,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Generalization</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6784,46 +6728,42 @@
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
+      <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Z93" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B94" t="n">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Tell me the central feature of bank branches in Oleander</t>
+          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Fort Worth</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>amenity=bank</t>
-        </is>
-      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
           <t>done</t>
@@ -6836,7 +6776,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Generalization</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6854,44 +6794,36 @@
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
+      <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Z94" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B95" t="n">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>What is the kernel density of crime in Surrey in UK</t>
+          <t>What is the mean center of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Surrey</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
@@ -6906,10 +6838,14 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
@@ -6925,28 +6861,28 @@
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Z95" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B96" t="n">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
+          <t>What is the weighted coordinate average of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -6964,10 +6900,14 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
@@ -6983,33 +6923,37 @@
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Z96" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B97" t="n">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
+          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>beds=*, tourism=hotel</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr">
         <is>
           <t>done</t>
@@ -7022,10 +6966,14 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
@@ -7041,35 +6989,35 @@
       <c r="X97" t="inlineStr"/>
       <c r="Y97" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Z97" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="B98" t="n">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to hospitals in Oleander</t>
+          <t>Where are the ski pistes in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>amenity=hospital</t>
+          <t>site=piste</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -7084,10 +7032,14 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
@@ -7103,37 +7055,33 @@
       <c r="X98" t="inlineStr"/>
       <c r="Y98" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Z98" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B99" t="n">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to schools in Utrecht</t>
+          <t>Where are the five star hotels in the Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>the Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>amenity=school</t>
-        </is>
-      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
           <t>done</t>
@@ -7146,10 +7094,14 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
@@ -7165,33 +7117,37 @@
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Z99" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B100" t="n">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
+          <t>Where are the industrial areas in Utrecht</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>landuse=industrial</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr">
         <is>
           <t>done</t>
@@ -7204,10 +7160,14 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
@@ -7223,37 +7183,41 @@
       <c r="X100" t="inlineStr"/>
       <c r="Y100" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Z100" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="B101" t="n">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>What is the kernel density of traffic accidents in Pasadena, California</t>
+          <t>Where are the Hispanic food stores in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Pasadena</t>
+          <t>Tarrant County</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>California</t>
+          <t xml:space="preserve"> Texas</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>cuisine=latin_american</t>
+        </is>
+      </c>
       <c r="H101" t="inlineStr">
         <is>
           <t>done</t>
@@ -7266,10 +7230,14 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
@@ -7285,35 +7253,35 @@
       <c r="X101" t="inlineStr"/>
       <c r="Y101" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Z101" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B102" t="n">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
+          <t>Where are not conservation areas in UK</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>landuse=recreation_ground</t>
+          <t>landuse=conservation</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -7328,10 +7296,14 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
@@ -7347,35 +7319,35 @@
       <c r="X102" t="inlineStr"/>
       <c r="Y102" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Z102" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="B103" t="n">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>What is the density surface of rainfall measurements in the Netherlands</t>
+          <t>Which park is biggest in Utrecht</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>the Netherlands</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
+          <t>leisure=park</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -7390,10 +7362,14 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
@@ -7409,848 +7385,10 @@
       <c r="X103" t="inlineStr"/>
       <c r="Y103" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Z103" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B104" t="n">
-        <v>115</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>What is the Euclidean distance to green areas in Amsterdam</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
-        </is>
-      </c>
-      <c r="Z104" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B105" t="n">
-        <v>130</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Calculate the weighted coordinate average of library patrons for each district in Oleander</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
-        </is>
-      </c>
-      <c r="Z105" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B106" t="n">
-        <v>133</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Fort Worth</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
-        </is>
-      </c>
-      <c r="Z106" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B107" t="n">
-        <v>132</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>What is the mean center of library patrons for each district in Oleander</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
-        </is>
-      </c>
-      <c r="Z107" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B108" t="n">
-        <v>131</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>What is the weighted coordinate average of library patrons for each district in Oleander</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
-        </is>
-      </c>
-      <c r="Z108" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B109" t="n">
-        <v>163</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>beds=*, tourism=hotel</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="Z109" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B110" t="n">
-        <v>165</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Where are the ski pistes in Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>site=piste</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="Z110" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B111" t="n">
-        <v>158</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Where are the five star hotels in the Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>the Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="Z111" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B112" t="n">
-        <v>162</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Where are the industrial areas in Utrecht</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>landuse=industrial</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="Z112" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B113" t="n">
-        <v>159</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Where are the Hispanic food stores in Tarrant County in Texas</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>cuisine=latin_american</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="Z113" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B114" t="n">
-        <v>152</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Where are not conservation areas in UK</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>landuse=conservation</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="Z114" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B115" t="n">
-        <v>173</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Which park is biggest in Utrecht</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>leisure=park</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="Z115" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B116" t="n">
-        <v>156</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Where are the commercial areas in Amsterdam</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>landuse=commercial</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="Z116" t="n">
         <v>47</v>
       </c>
     </row>

--- a/textToOps/data/processed/stratified_train.xlsx
+++ b/textToOps/data/processed/stratified_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z103"/>
+  <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,7 +636,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B3" t="n">
         <v>168</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="n">
         <v>45</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="n">
         <v>46</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B6" t="n">
         <v>151</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B7" t="n">
         <v>178</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B8" t="n">
         <v>124</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B9" t="n">
         <v>143</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B10" t="n">
         <v>125</v>
@@ -1202,28 +1202,24 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="B12" t="n">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Which visitor facilities are in the Happy Valley</t>
+          <t>What are the land use inside the flood zones in Oleander</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>the Happy Valley</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>information=visitor_centre</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
           <t>done</t>
@@ -1234,8 +1230,16 @@
           <t>Data queries</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -1251,35 +1255,35 @@
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>What are the four fire stations with shortest network-based paths to 1202 Twin Peaks Blvd in San Francisco</t>
+          <t>How many streetlights for each district in San Diego</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>highway=*, name=Twin Peaks Boulevard, amenity=fire_station</t>
+          <t>highway=street_lamp</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1294,7 +1298,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1317,35 +1321,35 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Which wind farm proposals are nearest to the bike lane in Scotland</t>
+          <t>What are the four fire stations with shortest network-based paths to 1202 Twin Peaks Blvd in San Francisco</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>highway=*, name=Twin Peaks Boulevard, amenity=fire_station</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1360,7 +1364,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1392,14 +1396,14 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B15" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Which suggested wind farm are nearest to the high way in Scotland</t>
+          <t>Which wind farm proposals are nearest to the bike lane in Scotland</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1458,14 +1462,14 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B16" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Which proposed wind farm are nearest to the high way in Scotland</t>
+          <t>Which suggested wind farm are nearest to the high way in Scotland</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1524,26 +1528,26 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>What are the two fire stations closest to each school in Utrecht</t>
+          <t>Which proposed wind farm are nearest to the high way in Scotland</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>amenity=fire_station, amenity=school</t>
+          <t>highway=*</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1558,7 +1562,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1590,7 +1594,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
@@ -1664,7 +1668,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B19" t="n">
         <v>176</v>
@@ -1742,7 +1746,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B20" t="n">
         <v>175</v>
@@ -1820,28 +1824,24 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Which schools are not accessible within 3 minutes by a car from a fire station in Fort Worth</t>
+          <t>What are the vote totals of an election for each precinct in Dallas</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Fort Worth</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>amenity=fire_station, amenity=school</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
           <t>done</t>
@@ -1849,34 +1849,18 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -1889,31 +1873,35 @@
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>data queries,network analysis,classification,data queries,overlay analysis,data queries</t>
+          <t>data editing,data queries</t>
         </is>
       </c>
       <c r="Z21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="B22" t="n">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>What are the vote totals of an election for each precinct in Dallas</t>
+          <t>Where are the auto accidents in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dallas</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
@@ -1923,7 +1911,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1956,27 +1944,27 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B23" t="n">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Where are the auto accidents in Tarrant County in Texas</t>
+          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t xml:space="preserve">the Western USA </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>from 1970 to 1994</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
@@ -1985,7 +1973,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2018,27 +2006,23 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B24" t="n">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>What is the cervix cancer mortality rate of white females for each city in the Western USA from 1970 to 1994</t>
+          <t>What is the literacy rate for each country in Africa</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">the Western USA </t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>from 1970 to 1994</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
@@ -2047,7 +2031,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2080,24 +2064,28 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="B25" t="n">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>What is the literacy rate for each country in Africa</t>
+          <t>What areas are outside 60 meters from residence in Houston</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>residential=*</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>done</t>
@@ -2105,15 +2093,19 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
@@ -2129,33 +2121,37 @@
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Z25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>What is the area of currently mixed use zones in Gresham</t>
+          <t>What areas are outside 5000 meters of the roads in Spain</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>highway=*</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>done</t>
@@ -2163,15 +2159,19 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -2187,23 +2187,23 @@
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>data editing,data queries</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Z26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B27" t="n">
         <v>27</v>
       </c>
-      <c r="B27" t="n">
-        <v>35</v>
-      </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from residence in Houston</t>
+          <t>What areas are outside 150 meters from hospitals in Houston</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2215,7 +2215,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>residential=*</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2262,26 +2262,26 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>What areas are outside 5000 meters of the roads in Spain</t>
+          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>highway=*</t>
+          <t>leisure=nature_reserve</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2328,28 +2328,24 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B29" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from hospitals in Houston</t>
+          <t>What areas are more than 5000 meters from the roads in Spain</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>amenity=hospital</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
           <t>done</t>
@@ -2394,14 +2390,14 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>What areas are outside 155 meters from nature reserve districts in Houston</t>
+          <t>What areas are outside 150 meters from schools in Houston</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2413,7 +2409,7 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>leisure=nature_reserve</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2460,24 +2456,28 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B31" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>What areas are more than 5000 meters from the roads in Spain</t>
+          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>amenity=restaurant</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
           <t>done</t>
@@ -2522,19 +2522,19 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>What areas are outside 150 meters from schools in Houston</t>
+          <t>What areas are within 1000 meters of the schools in Oleander</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2588,26 +2588,26 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B33" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of a restaurant in Gresham</t>
+          <t>What areas are at least 3000 meters from the rivers in Spain</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>amenity=restaurant</t>
+          <t>waterway=river</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2654,26 +2654,30 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B34" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the schools in Oleander</t>
+          <t>What areas are outside 5 km of water bodies in Assam in India</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2720,26 +2724,26 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B35" t="n">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>What areas are at least 3000 meters from the rivers in Spain</t>
+          <t>What areas are within 800 meter from major highways in Houston</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>waterway=river</t>
+          <t>highway=motorway</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2786,30 +2790,26 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B36" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>What areas are outside 5 km of water bodies in Assam in India</t>
+          <t>What areas are within 1000 meters of the arcades in Oleander</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Assam</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
+          <t>leisure=amusement_arcade</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2856,14 +2856,14 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B37" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>What areas are within 800 meter from major highways in Houston</t>
+          <t>What areas are outside 60 meters from water body in Houston</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2875,7 +2875,7 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>highway=motorway</t>
+          <t>landuse=aquaculture, basin, salt_pond</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2922,26 +2922,26 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B38" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>What areas are within 1000 meters of the arcades in Oleander</t>
+          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Gresham</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>leisure=amusement_arcade</t>
+          <t>railway=tram_stop, light_rail</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2988,14 +2988,14 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B39" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>What areas are outside 60 meters from water body in Houston</t>
+          <t>What areas are outside 300 meters from streams in Houston</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3007,7 +3007,7 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>landuse=aquaculture, basin, salt_pond</t>
+          <t>waterway=stream</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3054,28 +3054,24 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B40" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>What areas are within a quarter mile of light rail stop in Gresham</t>
+          <t>What areas are not flood plain in Houston</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Gresham</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>railway=tram_stop, light_rail</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
           <t>done</t>
@@ -3088,14 +3084,10 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
@@ -3111,23 +3103,23 @@
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Z40" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B41" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>What areas are outside 300 meters from streams in Houston</t>
+          <t>What areas are not green belt areas in Houston</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3137,11 +3129,7 @@
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>waterway=stream</t>
-        </is>
-      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
           <t>done</t>
@@ -3154,14 +3142,10 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
@@ -3177,37 +3161,33 @@
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Z41" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B42" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from religious places in Karbala in Iraq</t>
+          <t>What areas are not classified as flood plain in Houston</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>landuse=religious</t>
-        </is>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
           <t>done</t>
@@ -3220,14 +3200,10 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
@@ -3243,37 +3219,33 @@
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Z42" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B43" t="n">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>What areas are within 300 meters of runways in Schiphol airport</t>
+          <t>Tell me not flood plain area in Houston</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Schiphol airport</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>aeroway=runway</t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
           <t>done</t>
@@ -3286,14 +3258,10 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Buffer</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -3309,37 +3277,33 @@
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Z43" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B44" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>What areas are within 500 meters from universities in Karbala in Iraq</t>
+          <t>What areas are reachable within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Karbala, Iraq</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>amenity=university</t>
-        </is>
-      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
           <t>done</t>
@@ -3352,18 +3316,34 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Network analysis</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
@@ -3371,32 +3351,36 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
         </is>
       </c>
       <c r="Z44" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B45" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>What areas are not flood plain in Houston</t>
+          <t>What areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -3414,14 +3398,34 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
@@ -3429,32 +3433,36 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
         </is>
       </c>
       <c r="Z45" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B46" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>What areas are not green belt areas in Houston</t>
+          <t>What areas are within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -3472,14 +3480,34 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Network analysis</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
@@ -3487,35 +3515,43 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>어디로 부터 가장 가까운 소방서</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
         </is>
       </c>
       <c r="Z46" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B47" t="n">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>What areas are not classified as flood plain in Houston</t>
+          <t>What areas are accessible within two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Houston</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
@@ -3525,16 +3561,24 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -3545,35 +3589,43 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>data editing,data queries,buffer,overlay analysis,what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. urban tag를 그렇게 사용하지도 않는다</t>
         </is>
       </c>
       <c r="Z47" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Tell me not flood plain area in Houston</t>
+          <t>What areas are accessible within reach two miles of urban landuse in Loudoun County in US</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Houston</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>Loudoun County</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -3583,16 +3635,24 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Buffer</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -3603,32 +3663,36 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. Urban tag를 그렇게 사용하지도 않는다</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis</t>
+          <t>data editing,data queries,buffer,overlay analysis,what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. urban tag를 그렇게 사용하지도 않는다</t>
         </is>
       </c>
       <c r="Z48" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B49" t="n">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>What areas are reachable within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3641,12 +3705,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3656,24 +3720,16 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data model conversion</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -3681,36 +3737,32 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Z49" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B50" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>What areas are outside 3 minutes of driving time from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas do have slope larger than 10 percent in Spain</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3723,12 +3775,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Topography</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>classification</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3738,24 +3790,16 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Data model conversion</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3763,31 +3807,27 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Z50" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="B51" t="n">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>What areas are within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What is the point density of trees in parks in Oleander</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3797,7 +3837,11 @@
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>natural=tree</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
           <t>done</t>
@@ -3810,34 +3854,22 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -3845,36 +3877,32 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+          <t>data queries,geometry measurement,data editing,data queries</t>
         </is>
       </c>
       <c r="Z51" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>What areas are accessible within 3 minutes of by car from the nearest fire station (from my current location) in Oleander</t>
+          <t>What areas do have population density less than 300 per square kilometer in UK</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3892,34 +3920,22 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Network analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Network analysis</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
@@ -3927,41 +3943,41 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>어디로 부터 가장 가까운 소방서</t>
-        </is>
-      </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+          <t>data queries,geometry measurement,data editing,data queries</t>
         </is>
       </c>
       <c r="Z52" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>What areas have slope larger than 15 percent and smaller than 60 percent in the Cape Peninsula</t>
+          <t>What areas do have temperature in Celsius less than 0 degrees in Spain</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>monitoring:weather=yes</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
           <t>done</t>
@@ -3969,7 +3985,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4005,28 +4021,28 @@
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Z53" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B54" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>What areas do have slope larger than 10 percent in Spain</t>
+          <t>What areas have an annual snowfall more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -4039,7 +4055,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4075,28 +4091,28 @@
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Z54" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>What areas do have altitude between 700 and 2000 meters in Spain</t>
+          <t>What areas have an annual rainfall of less than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -4109,7 +4125,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Topography</t>
+          <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4145,37 +4161,33 @@
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>topography,classification,data queries,data model conversion,overlay analysis</t>
+          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
         </is>
       </c>
       <c r="Z55" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>What areas do have temperature in Celsius less than 0 degrees in Spain</t>
+          <t>What areas have an monthly rainfall of more than 1000 millimeters in the Cape Peninsula</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>the Cape Peninsula</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>monitoring:weather=yes</t>
-        </is>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
           <t>done</t>
@@ -4228,24 +4240,28 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B57" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>What areas have an annual snowfall more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>highway=motorway, building=house</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
           <t>done</t>
@@ -4253,29 +4269,25 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>Buffer</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
@@ -4289,33 +4301,37 @@
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z57" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="B58" t="n">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>What areas have an annual rainfall of less than 1000 millimeters in the Cape Peninsula</t>
+          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
           <t>done</t>
@@ -4323,29 +4339,25 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
@@ -4359,33 +4371,37 @@
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z58" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="B59" t="n">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>What areas have an monthly rainfall of more than 1000 millimeters in the Cape Peninsula</t>
+          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>the Cape Peninsula</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>shop=alcohol, amenity=library</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
           <t>done</t>
@@ -4393,29 +4409,25 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
@@ -4429,35 +4441,35 @@
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z59" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="B60" t="n">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>What areas do have temperature in Celsius larger than 0 degrees in Spain</t>
+          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>El Cajon</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>monitoring:weather=yes</t>
+          <t>shop=alcohol, leisure=park</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4467,29 +4479,25 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>classification</t>
+          <t>buffer</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Data model conversion</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
@@ -4503,23 +4511,23 @@
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>geostatistics  ,classification,data queries,data model conversion,overlay analysis</t>
+          <t>data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z60" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B61" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 0.5km from the main roads in Utrecht</t>
+          <t>Which houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4531,7 +4539,7 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>highway=motorway, building=house</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4541,25 +4549,29 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
+          <t>buffer</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
@@ -4573,35 +4585,35 @@
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z61" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="B62" t="n">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of schools, libraries, and parks in El Cajon</t>
+          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=school,  amenity=library,  leisure=park</t>
+          <t>shop=*, building=house</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4611,25 +4623,29 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
           <t>buffer</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
@@ -4643,35 +4659,35 @@
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z62" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B63" t="n">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of libraries in El Cajon</t>
+          <t>What houses are for sale and within 1km from the nearest subway station (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>shop=alcohol, amenity=library</t>
+          <t>shop=*, building=house</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4681,25 +4697,29 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
           <t>buffer</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
@@ -4713,35 +4733,35 @@
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z63" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="B64" t="n">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>What liquor stores are within 1000 foot of parks in El Cajon</t>
+          <t>What houses are less than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>El Cajon</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>shop=alcohol, leisure=park</t>
+          <t>amenity=school, building=house</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4751,25 +4771,29 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>network analysis</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
           <t>buffer</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>Overlay analysis</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
@@ -4783,23 +4807,23 @@
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Z64" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B65" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the parks in Utrecht</t>
+          <t>What houses are for sale outside flood zone in Utrecht</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4811,7 +4835,7 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>leisure=park, building=house</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -4826,19 +4850,15 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Buffer</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -4849,27 +4869,31 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
         </is>
       </c>
       <c r="Z65" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B66" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Which houses are larger than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What houses are for sale in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4881,7 +4905,7 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>amenity=school, building=house</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4891,29 +4915,21 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
@@ -4923,27 +4939,31 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
         </is>
       </c>
       <c r="Z66" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B67" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest supermarket (from my current location) in Utrecht</t>
+          <t>What houses are less than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4955,7 +4975,7 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>shop=*, building=house</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4965,29 +4985,21 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
@@ -4997,27 +5009,31 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
         </is>
       </c>
       <c r="Z67" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B68" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>What houses are for sale and within 1km from the nearest subway station (from my current location) in Utrecht</t>
+          <t>What houses are larger than 30 square meters in urban areas in Utrecht</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5029,7 +5045,7 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>shop=*, building=house</t>
+          <t>boundary=urban, building=house</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5039,29 +5055,21 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>buffer</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
@@ -5071,41 +5079,45 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
+        </is>
+      </c>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
         </is>
       </c>
       <c r="Z68" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="B69" t="n">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>What houses are less than 30 square meters and within 1km from the nearest school (from my current location) in Utrecht</t>
+          <t>What is the median population for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>amenity=school, building=house</t>
-        </is>
-      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
           <t>done</t>
@@ -5113,29 +5125,25 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>network analysis</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Overlay analysis</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>buffer</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t>Data queries</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
@@ -5149,37 +5157,37 @@
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>network analysis,data queries,buffer,overlay analysis,data queries</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Z69" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="B70" t="n">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>What houses are for sale outside flood zone in Utrecht</t>
+          <t xml:space="preserve">What is the number of injured pedestrians for each census tract in Georgia from 2000 to 2007 </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>boundary=urban, building=house</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> from 2000 to 2007 </t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
           <t>done</t>
@@ -5187,7 +5195,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5197,10 +5205,14 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -5211,45 +5223,37 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Z70" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B71" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>What houses are for sale in urban areas in Utrecht</t>
+          <t>What is the average rating of street pavement for each borough in New York City</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>boundary=urban, building=house</t>
-        </is>
-      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
           <t>done</t>
@@ -5257,7 +5261,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>Data editing</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5267,10 +5271,14 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
+          <t>Data editing</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -5281,45 +5289,41 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Z71" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="B72" t="n">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>What houses are less than 30 square meters in urban areas in Utrecht</t>
+          <t>Show me the median people age for each census tract in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>boundary=urban, building=house</t>
-        </is>
-      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
           <t>done</t>
@@ -5327,7 +5331,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5337,10 +5341,14 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -5351,45 +5359,41 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Z72" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="B73" t="n">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>What houses are larger than 30 square meters in urban areas in Utrecht</t>
+          <t>What is the median number of family member for each census block in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>boundary=urban, building=house</t>
-        </is>
-      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
           <t>done</t>
@@ -5397,7 +5401,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Data queries</t>
+          <t>data editing</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5407,10 +5411,14 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
+          <t>data editing</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -5421,45 +5429,41 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>osm urban이 있긴 하지만 거의 안쓴다</t>
-        </is>
-      </c>
+      <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>data editing,overlay analysis,data editing,data queries</t>
         </is>
       </c>
       <c r="Z73" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B74" t="n">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>What is the median population for each census block in Tarrant County in Texas</t>
+          <t>Show me the central feature of bank branches in Oleander</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Oleander</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>amenity=bank</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr">
         <is>
           <t>done</t>
@@ -5467,24 +5471,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Generalization</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -5494,42 +5494,46 @@
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
         </is>
       </c>
       <c r="Z74" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B75" t="n">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">What is the number of injured pedestrians for each census tract in Georgia from 2000 to 2007 </t>
+          <t>What is weighted average coordinates of bank branches in Oleander</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> from 2000 to 2007 </t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>amenity=bank</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr">
         <is>
           <t>done</t>
@@ -5537,24 +5541,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Generalization</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -5564,38 +5564,46 @@
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
         </is>
       </c>
       <c r="Z75" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B76" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>What is the average rating of street pavement for each borough in New York City</t>
+          <t>Tell me weighted average coordinates of bank branches in Oleander</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>amenity=bank</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr">
         <is>
           <t>done</t>
@@ -5603,24 +5611,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Generalization</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Data editing</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -5630,38 +5634,42 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+        </is>
+      </c>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
         </is>
       </c>
       <c r="Z76" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B77" t="n">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Show me the median people age for each census tract in Tarrant County in Texas</t>
+          <t>What is the kernel density of crime in Surrey in UK</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
+          <t>Surrey</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Texas</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -5673,24 +5681,16 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -5705,35 +5705,31 @@
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Z77" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B78" t="n">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>What is the median number of family member for each census block in Tarrant County in Texas</t>
+          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
@@ -5743,24 +5739,16 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -5775,35 +5763,31 @@
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Z78" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B79" t="n">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Tell me the median household income for each census block in Tarrant County in Texas</t>
+          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
@@ -5813,24 +5797,16 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>data editing</t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>data editing</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Geostatistics  </t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -5845,23 +5821,23 @@
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>data editing,overlay analysis,data editing,data queries</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Z79" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Show me the central feature of bank branches in Oleander</t>
+          <t>What is the Euclidean distance to hospitals in Oleander</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -5873,7 +5849,7 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t>amenity=hospital</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -5888,14 +5864,10 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Generalization</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
@@ -5906,44 +5878,40 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
+      <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Z80" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B81" t="n">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>What is weighted average coordinates of bank branches in Oleander</t>
+          <t>What is the Euclidean distance to schools in Utrecht</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>amenity=bank</t>
+          <t>amenity=school</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -5958,14 +5926,10 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Generalization</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
@@ -5976,46 +5940,38 @@
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
+      <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Z81" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B82" t="n">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Tell me weighted average coordinates of bank branches in Oleander</t>
+          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>amenity=bank</t>
-        </is>
-      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
           <t>done</t>
@@ -6028,14 +5984,10 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Generalization</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
@@ -6046,46 +5998,42 @@
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
+      <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Z82" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="B83" t="n">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Tell me the central feature of bank branches in Oleander</t>
+          <t>What is the kernel density of traffic accidents in Pasadena, California</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
+          <t>Pasadena</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>amenity=bank</t>
-        </is>
-      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
           <t>done</t>
@@ -6098,14 +6046,10 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Generalization</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
@@ -6116,46 +6060,42 @@
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
-        </is>
-      </c>
+      <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+          <t xml:space="preserve">data queries,geostatistics  </t>
         </is>
       </c>
       <c r="Z83" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B84" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>What is the kernel density of crime in Surrey in UK</t>
+          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Surrey</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>landuse=recreation_ground</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
           <t>done</t>
@@ -6196,19 +6136,19 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B85" t="n">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to tram stations in Amsterdam</t>
+          <t>Calculate the weighted coordinate average of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Oleander</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -6226,10 +6166,14 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
@@ -6245,23 +6189,23 @@
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Z85" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B86" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>What is the mean center of crimes weighted by the severity in Fort Worth</t>
+          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -6270,7 +6214,11 @@
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
@@ -6284,10 +6232,14 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
@@ -6303,23 +6255,23 @@
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Z86" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B87" t="n">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to hospitals in Oleander</t>
+          <t>What is the mean center of library patrons for each district in Oleander</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -6329,11 +6281,7 @@
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>amenity=hospital</t>
-        </is>
-      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
           <t>done</t>
@@ -6346,10 +6294,14 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
+          <t>Overlay analysis</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
           <t xml:space="preserve">Geostatistics  </t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
@@ -6365,35 +6317,35 @@
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
         </is>
       </c>
       <c r="Z87" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="B88" t="n">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to schools in Utrecht</t>
+          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>amenity=school</t>
+          <t>beds=*, tourism=hotel</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -6408,10 +6360,14 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
@@ -6427,33 +6383,37 @@
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Z88" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="B89" t="n">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to subway stations in Amsterdam</t>
+          <t>Where are the ski pistes in Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Happy Valley ski resort</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>site=piste</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr">
         <is>
           <t>done</t>
@@ -6466,10 +6426,14 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
@@ -6485,35 +6449,31 @@
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Z89" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="B90" t="n">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>What is the kernel density of traffic accidents in Pasadena, California</t>
+          <t>Where are the five star hotels in the Happy Valley ski resort</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Pasadena</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
+          <t>the Happy Valley ski resort</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
@@ -6528,10 +6488,14 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
@@ -6547,23 +6511,23 @@
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Z90" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="B91" t="n">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>What is the Euclidean distance to recreational sites in Utrecht</t>
+          <t>Where are the industrial areas in Utrecht</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -6575,7 +6539,7 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>landuse=recreation_ground</t>
+          <t>landuse=industrial</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6590,10 +6554,14 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
@@ -6609,35 +6577,39 @@
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Z91" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="B92" t="n">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>What is the density surface of rainfall measurements in the Netherlands</t>
+          <t>Where are the Hispanic food stores in Tarrant County in Texas</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>the Netherlands</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
+          <t>Tarrant County</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Texas</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> man_made=monitoring_station</t>
+          <t>cuisine=latin_american</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -6652,10 +6624,14 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr"/>
+          <t>Geometry measurement</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Data queries</t>
+        </is>
+      </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
@@ -6671,33 +6647,37 @@
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,geostatistics  </t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Z92" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="B93" t="n">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Calculate the weighted coordinate average of library patrons for each district in Oleander</t>
+          <t>Where are not conservation areas in UK</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Oleander</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>landuse=conservation</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
           <t>done</t>
@@ -6710,12 +6690,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Overlay analysis</t>
+          <t>Geometry measurement</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geostatistics  </t>
+          <t>Data queries</t>
         </is>
       </c>
       <c r="L93" t="inlineStr"/>
@@ -6733,662 +6713,10 @@
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr">
         <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Z93" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B94" t="n">
-        <v>133</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>What is the mean center of the fire calls for each alarm territory in Fort Worth in 2017</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Fort Worth</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
-        </is>
-      </c>
-      <c r="Z94" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B95" t="n">
-        <v>132</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>What is the mean center of library patrons for each district in Oleander</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
-        </is>
-      </c>
-      <c r="Z95" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B96" t="n">
-        <v>131</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>What is the weighted coordinate average of library patrons for each district in Oleander</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Oleander</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Overlay analysis</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geostatistics  </t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">data queries,overlay analysis,geostatistics  </t>
-        </is>
-      </c>
-      <c r="Z96" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B97" t="n">
-        <v>163</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Where are the luxury hotels with more than 20 bedrooms in Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>beds=*, tourism=hotel</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="Z97" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B98" t="n">
-        <v>165</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Where are the ski pistes in Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>site=piste</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="Z98" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B99" t="n">
-        <v>158</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Where are the five star hotels in the Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>the Happy Valley ski resort</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="Z99" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B100" t="n">
-        <v>162</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Where are the industrial areas in Utrecht</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>landuse=industrial</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="Z100" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B101" t="n">
-        <v>159</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Where are the Hispanic food stores in Tarrant County in Texas</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Tarrant County</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Texas</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>cuisine=latin_american</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="Z101" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B102" t="n">
-        <v>152</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Where are not conservation areas in UK</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>landuse=conservation</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="Z102" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B103" t="n">
-        <v>173</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Which park is biggest in Utrecht</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>leisure=park</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Geometry measurement</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>Data queries</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr">
-        <is>
-          <t>data queries,geometry measurement,data queries</t>
-        </is>
-      </c>
-      <c r="Z103" t="n">
         <v>47</v>
       </c>
     </row>
